--- a/UrisLibrary.xlsx
+++ b/UrisLibrary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewburgos/Desktop/BEE 4750/BEE4750FinalProject-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCB9941-C794-194A-8C26-B17F2B2FA110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFD6C12-6BBA-4C4A-BD72-3CFE052FA66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5402" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5505" uniqueCount="1473">
   <si>
     <t>name</t>
   </si>
@@ -4177,12 +4177,312 @@
   </si>
   <si>
     <t>Steam (lbs/hr)</t>
+  </si>
+  <si>
+    <t>31.754372916</t>
+  </si>
+  <si>
+    <t>20.831662666</t>
+  </si>
+  <si>
+    <t>19.859376666</t>
+  </si>
+  <si>
+    <t>20.187746875</t>
+  </si>
+  <si>
+    <t>21.097544791</t>
+  </si>
+  <si>
+    <t>23.536673958</t>
+  </si>
+  <si>
+    <t>23.033635416</t>
+  </si>
+  <si>
+    <t>29.366894791</t>
+  </si>
+  <si>
+    <t>38.665329166</t>
+  </si>
+  <si>
+    <t>22.343970833</t>
+  </si>
+  <si>
+    <t>17.946538541</t>
+  </si>
+  <si>
+    <t>18.209519687</t>
+  </si>
+  <si>
+    <t>29.148052083</t>
+  </si>
+  <si>
+    <t>43.600407291</t>
+  </si>
+  <si>
+    <t>44.249487500</t>
+  </si>
+  <si>
+    <t>47.552010416</t>
+  </si>
+  <si>
+    <t>45.880881250</t>
+  </si>
+  <si>
+    <t>18.545138541</t>
+  </si>
+  <si>
+    <t>17.878691875</t>
+  </si>
+  <si>
+    <t>11.279720937</t>
+  </si>
+  <si>
+    <t>4.537919270</t>
+  </si>
+  <si>
+    <t>5.931713541</t>
+  </si>
+  <si>
+    <t>16.322362500</t>
+  </si>
+  <si>
+    <t>17.608522604</t>
+  </si>
+  <si>
+    <t>14.311549166</t>
+  </si>
+  <si>
+    <t>11.041398020</t>
+  </si>
+  <si>
+    <t>17.653121145</t>
+  </si>
+  <si>
+    <t>6.692409270</t>
+  </si>
+  <si>
+    <t>12.609975416</t>
+  </si>
+  <si>
+    <t>13.530026666</t>
+  </si>
+  <si>
+    <t>9.286664895</t>
+  </si>
+  <si>
+    <t>4.456206458</t>
+  </si>
+  <si>
+    <t>7.674985833</t>
+  </si>
+  <si>
+    <t>13.301302812</t>
+  </si>
+  <si>
+    <t>9.221459166</t>
+  </si>
+  <si>
+    <t>16.727230000</t>
+  </si>
+  <si>
+    <t>19.510395625</t>
+  </si>
+  <si>
+    <t>9.115909791</t>
+  </si>
+  <si>
+    <t>7.573765208</t>
+  </si>
+  <si>
+    <t>4.033475937</t>
+  </si>
+  <si>
+    <t>3.755696979</t>
+  </si>
+  <si>
+    <t>11.466130937</t>
+  </si>
+  <si>
+    <t>10.196558437</t>
+  </si>
+  <si>
+    <t>6.512321250</t>
+  </si>
+  <si>
+    <t>4.576780625</t>
+  </si>
+  <si>
+    <t>7.195245312</t>
+  </si>
+  <si>
+    <t>6.574409791</t>
+  </si>
+  <si>
+    <t>3.732063541</t>
+  </si>
+  <si>
+    <t>3.273547395</t>
+  </si>
+  <si>
+    <t>7.650242500</t>
+  </si>
+  <si>
+    <t>13.188295729</t>
+  </si>
+  <si>
+    <t>13.476430312</t>
+  </si>
+  <si>
+    <t>13.766329375</t>
+  </si>
+  <si>
+    <t>12.895033437</t>
+  </si>
+  <si>
+    <t>4.362300833</t>
+  </si>
+  <si>
+    <t>4.109636458</t>
+  </si>
+  <si>
+    <t>3.788534479</t>
+  </si>
+  <si>
+    <t>8.767906979</t>
+  </si>
+  <si>
+    <t>14.441218958</t>
+  </si>
+  <si>
+    <t>14.339905937</t>
+  </si>
+  <si>
+    <t>4.700733541</t>
+  </si>
+  <si>
+    <t>7.009283958</t>
+  </si>
+  <si>
+    <t>5.162809375</t>
+  </si>
+  <si>
+    <t>5.757540000</t>
+  </si>
+  <si>
+    <t>9.963574270</t>
+  </si>
+  <si>
+    <t>10.864505416</t>
+  </si>
+  <si>
+    <t>13.740089270</t>
+  </si>
+  <si>
+    <t>13.117162291</t>
+  </si>
+  <si>
+    <t>4.738008958</t>
+  </si>
+  <si>
+    <t>3.450314479</t>
+  </si>
+  <si>
+    <t>3.854660729</t>
+  </si>
+  <si>
+    <t>2.750692395</t>
+  </si>
+  <si>
+    <t>6.432487083</t>
+  </si>
+  <si>
+    <t>7.172960937</t>
+  </si>
+  <si>
+    <t>9.257585625</t>
+  </si>
+  <si>
+    <t>9.441540416</t>
+  </si>
+  <si>
+    <t>10.417261145</t>
+  </si>
+  <si>
+    <t>10.146218958</t>
+  </si>
+  <si>
+    <t>9.324481979</t>
+  </si>
+  <si>
+    <t>7.544578645</t>
+  </si>
+  <si>
+    <t>6.736191145</t>
+  </si>
+  <si>
+    <t>5.878377395</t>
+  </si>
+  <si>
+    <t>20.284521875</t>
+  </si>
+  <si>
+    <t>21.534120937</t>
+  </si>
+  <si>
+    <t>23.624207291</t>
+  </si>
+  <si>
+    <t>80.288541666</t>
+  </si>
+  <si>
+    <t>79.210416666</t>
+  </si>
+  <si>
+    <t>73.684375000</t>
+  </si>
+  <si>
+    <t>75.697916666</t>
+  </si>
+  <si>
+    <t>53.002083333</t>
+  </si>
+  <si>
+    <t>47.175000000</t>
+  </si>
+  <si>
+    <t>42.612500000</t>
+  </si>
+  <si>
+    <t>43.308333333</t>
+  </si>
+  <si>
+    <t>42.726041666</t>
+  </si>
+  <si>
+    <t>42.990625000</t>
+  </si>
+  <si>
+    <t>42.927083333</t>
+  </si>
+  <si>
+    <t>45.052083333</t>
+  </si>
+  <si>
+    <t>45.490625000</t>
+  </si>
+  <si>
+    <t>45.958333333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4192,12 +4492,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4212,8 +4518,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4555,13 +4863,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B316" zoomScale="118" workbookViewId="0">
+      <selection activeCell="K368" sqref="K368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
@@ -4612,9 +4920,8 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-02 00:00:00</v>
+      <c r="F2" s="1">
+        <v>45293</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4645,9 +4952,8 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-03 00:00:00</v>
+      <c r="F3" s="1">
+        <v>45294</v>
       </c>
       <c r="G3" t="str" cm="1">
         <f t="array" ref="G3">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4678,9 +4984,8 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-04 00:00:00</v>
+      <c r="F4" s="1">
+        <v>45295</v>
       </c>
       <c r="G4" t="str" cm="1">
         <f t="array" ref="G4">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4711,9 +5016,8 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-05 00:00:00</v>
+      <c r="F5" s="1">
+        <v>45296</v>
       </c>
       <c r="G5" t="str" cm="1">
         <f t="array" ref="G5">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4744,9 +5048,8 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="str" cm="1">
-        <f t="array" ref="F6">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-06 00:00:00</v>
+      <c r="F6" s="1">
+        <v>45297</v>
       </c>
       <c r="G6" t="str" cm="1">
         <f t="array" ref="G6">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4777,9 +5080,8 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="str" cm="1">
-        <f t="array" ref="F7">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-07 00:00:00</v>
+      <c r="F7" s="1">
+        <v>45298</v>
       </c>
       <c r="G7" t="str" cm="1">
         <f t="array" ref="G7">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4810,9 +5112,8 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-08 00:00:00</v>
+      <c r="F8" s="1">
+        <v>45299</v>
       </c>
       <c r="G8" t="str" cm="1">
         <f t="array" ref="G8">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4843,9 +5144,8 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="str" cm="1">
-        <f t="array" ref="F9">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-09 00:00:00</v>
+      <c r="F9" s="1">
+        <v>45300</v>
       </c>
       <c r="G9" t="str" cm="1">
         <f t="array" ref="G9">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4876,9 +5176,8 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="str" cm="1">
-        <f t="array" ref="F10">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-10 00:00:00</v>
+      <c r="F10" s="1">
+        <v>45301</v>
       </c>
       <c r="G10" t="str" cm="1">
         <f t="array" ref="G10">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4909,9 +5208,8 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="str" cm="1">
-        <f t="array" ref="F11">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-11 00:00:00</v>
+      <c r="F11" s="1">
+        <v>45302</v>
       </c>
       <c r="G11" t="str" cm="1">
         <f t="array" ref="G11">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4942,9 +5240,8 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="str" cm="1">
-        <f t="array" ref="F12">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-12 00:00:00</v>
+      <c r="F12" s="1">
+        <v>45303</v>
       </c>
       <c r="G12" t="str" cm="1">
         <f t="array" ref="G12">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4975,9 +5272,8 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="str" cm="1">
-        <f t="array" ref="F13">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-13 00:00:00</v>
+      <c r="F13" s="1">
+        <v>45304</v>
       </c>
       <c r="G13" t="str" cm="1">
         <f t="array" ref="G13">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5008,9 +5304,8 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="str" cm="1">
-        <f t="array" ref="F14">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-14 00:00:00</v>
+      <c r="F14" s="1">
+        <v>45305</v>
       </c>
       <c r="G14" t="str" cm="1">
         <f t="array" ref="G14">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5041,9 +5336,8 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="str" cm="1">
-        <f t="array" ref="F15">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-15 00:00:00</v>
+      <c r="F15" s="1">
+        <v>45306</v>
       </c>
       <c r="G15" t="str" cm="1">
         <f t="array" ref="G15">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5074,9 +5368,8 @@
       <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="str" cm="1">
-        <f t="array" ref="F16">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-16 00:00:00</v>
+      <c r="F16" s="1">
+        <v>45307</v>
       </c>
       <c r="G16" t="str" cm="1">
         <f t="array" ref="G16">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5107,9 +5400,8 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="str" cm="1">
-        <f t="array" ref="F17">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-17 00:00:00</v>
+      <c r="F17" s="1">
+        <v>45308</v>
       </c>
       <c r="G17" t="str" cm="1">
         <f t="array" ref="G17">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5140,9 +5432,8 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" t="str" cm="1">
-        <f t="array" ref="F18">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-18 00:00:00</v>
+      <c r="F18" s="1">
+        <v>45309</v>
       </c>
       <c r="G18" t="str" cm="1">
         <f t="array" ref="G18">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5173,9 +5464,8 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="str" cm="1">
-        <f t="array" ref="F19">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-19 00:00:00</v>
+      <c r="F19" s="1">
+        <v>45310</v>
       </c>
       <c r="G19" t="str" cm="1">
         <f t="array" ref="G19">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5206,9 +5496,8 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="str" cm="1">
-        <f t="array" ref="F20">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-20 00:00:00</v>
+      <c r="F20" s="1">
+        <v>45311</v>
       </c>
       <c r="G20" t="str" cm="1">
         <f t="array" ref="G20">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5239,9 +5528,8 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="str" cm="1">
-        <f t="array" ref="F21">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-21 00:00:00</v>
+      <c r="F21" s="1">
+        <v>45312</v>
       </c>
       <c r="G21" t="str" cm="1">
         <f t="array" ref="G21">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5272,9 +5560,8 @@
       <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="str" cm="1">
-        <f t="array" ref="F22">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-22 00:00:00</v>
+      <c r="F22" s="1">
+        <v>45313</v>
       </c>
       <c r="G22" t="str" cm="1">
         <f t="array" ref="G22">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5305,9 +5592,8 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="str" cm="1">
-        <f t="array" ref="F23">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-23 00:00:00</v>
+      <c r="F23" s="1">
+        <v>45314</v>
       </c>
       <c r="G23" t="str" cm="1">
         <f t="array" ref="G23">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5338,9 +5624,8 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" t="str" cm="1">
-        <f t="array" ref="F24">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-24 00:00:00</v>
+      <c r="F24" s="1">
+        <v>45315</v>
       </c>
       <c r="G24" t="str" cm="1">
         <f t="array" ref="G24">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5371,9 +5656,8 @@
       <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="str" cm="1">
-        <f t="array" ref="F25">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-25 00:00:00</v>
+      <c r="F25" s="1">
+        <v>45316</v>
       </c>
       <c r="G25" t="str" cm="1">
         <f t="array" ref="G25">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5404,9 +5688,8 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="str" cm="1">
-        <f t="array" ref="F26">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-26 00:00:00</v>
+      <c r="F26" s="1">
+        <v>45317</v>
       </c>
       <c r="G26" t="str" cm="1">
         <f t="array" ref="G26">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5437,9 +5720,8 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="str" cm="1">
-        <f t="array" ref="F27">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-27 00:00:00</v>
+      <c r="F27" s="1">
+        <v>45318</v>
       </c>
       <c r="G27" t="str" cm="1">
         <f t="array" ref="G27">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5470,9 +5752,8 @@
       <c r="E28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="str" cm="1">
-        <f t="array" ref="F28">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-28 00:00:00</v>
+      <c r="F28" s="1">
+        <v>45319</v>
       </c>
       <c r="G28" t="str" cm="1">
         <f t="array" ref="G28">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5503,9 +5784,8 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="str" cm="1">
-        <f t="array" ref="F29">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-29 00:00:00</v>
+      <c r="F29" s="1">
+        <v>45320</v>
       </c>
       <c r="G29" t="str" cm="1">
         <f t="array" ref="G29">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5536,9 +5816,8 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" t="str" cm="1">
-        <f t="array" ref="F30">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-30 00:00:00</v>
+      <c r="F30" s="1">
+        <v>45321</v>
       </c>
       <c r="G30" t="str" cm="1">
         <f t="array" ref="G30">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5569,9 +5848,8 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="str" cm="1">
-        <f t="array" ref="F31">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-31 00:00:00</v>
+      <c r="F31" s="1">
+        <v>45322</v>
       </c>
       <c r="G31" t="str" cm="1">
         <f t="array" ref="G31">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5602,9 +5880,8 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="str" cm="1">
-        <f t="array" ref="F32">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-01 00:00:00</v>
+      <c r="F32" s="1">
+        <v>45323</v>
       </c>
       <c r="G32" t="str" cm="1">
         <f t="array" ref="G32">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5635,9 +5912,8 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="str" cm="1">
-        <f t="array" ref="F33">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-02 00:00:00</v>
+      <c r="F33" s="1">
+        <v>45324</v>
       </c>
       <c r="G33" t="str" cm="1">
         <f t="array" ref="G33">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5668,9 +5944,8 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" t="str" cm="1">
-        <f t="array" ref="F34">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-03 00:00:00</v>
+      <c r="F34" s="1">
+        <v>45325</v>
       </c>
       <c r="G34" t="str" cm="1">
         <f t="array" ref="G34">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5701,9 +5976,8 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="F35" t="str" cm="1">
-        <f t="array" ref="F35">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-04 00:00:00</v>
+      <c r="F35" s="1">
+        <v>45326</v>
       </c>
       <c r="G35" t="str" cm="1">
         <f t="array" ref="G35">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5734,9 +6008,8 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" t="str" cm="1">
-        <f t="array" ref="F36">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-05 00:00:00</v>
+      <c r="F36" s="1">
+        <v>45327</v>
       </c>
       <c r="G36" t="str" cm="1">
         <f t="array" ref="G36">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5767,9 +6040,8 @@
       <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" t="str" cm="1">
-        <f t="array" ref="F37">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-06 00:00:00</v>
+      <c r="F37" s="1">
+        <v>45328</v>
       </c>
       <c r="G37" t="str" cm="1">
         <f t="array" ref="G37">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5800,9 +6072,8 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" t="str" cm="1">
-        <f t="array" ref="F38">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-07 00:00:00</v>
+      <c r="F38" s="1">
+        <v>45329</v>
       </c>
       <c r="G38" t="str" cm="1">
         <f t="array" ref="G38">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5833,9 +6104,8 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="str" cm="1">
-        <f t="array" ref="F39">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-08 00:00:00</v>
+      <c r="F39" s="1">
+        <v>45330</v>
       </c>
       <c r="G39" t="str" cm="1">
         <f t="array" ref="G39">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5866,9 +6136,8 @@
       <c r="E40" t="s">
         <v>15</v>
       </c>
-      <c r="F40" t="str" cm="1">
-        <f t="array" ref="F40">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-09 00:00:00</v>
+      <c r="F40" s="1">
+        <v>45331</v>
       </c>
       <c r="G40" t="str" cm="1">
         <f t="array" ref="G40">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5899,9 +6168,8 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" t="str" cm="1">
-        <f t="array" ref="F41">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-10 00:00:00</v>
+      <c r="F41" s="1">
+        <v>45332</v>
       </c>
       <c r="G41" t="str" cm="1">
         <f t="array" ref="G41">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5932,9 +6200,8 @@
       <c r="E42" t="s">
         <v>12</v>
       </c>
-      <c r="F42" t="str" cm="1">
-        <f t="array" ref="F42">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-11 00:00:00</v>
+      <c r="F42" s="1">
+        <v>45333</v>
       </c>
       <c r="G42" t="str" cm="1">
         <f t="array" ref="G42">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5965,9 +6232,8 @@
       <c r="E43" t="s">
         <v>15</v>
       </c>
-      <c r="F43" t="str" cm="1">
-        <f t="array" ref="F43">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-12 00:00:00</v>
+      <c r="F43" s="1">
+        <v>45334</v>
       </c>
       <c r="G43" t="str" cm="1">
         <f t="array" ref="G43">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5998,9 +6264,8 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="str" cm="1">
-        <f t="array" ref="F44">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-13 00:00:00</v>
+      <c r="F44" s="1">
+        <v>45335</v>
       </c>
       <c r="G44" t="str" cm="1">
         <f t="array" ref="G44">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6031,9 +6296,8 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45" t="str" cm="1">
-        <f t="array" ref="F45">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-14 00:00:00</v>
+      <c r="F45" s="1">
+        <v>45336</v>
       </c>
       <c r="G45" t="str" cm="1">
         <f t="array" ref="G45">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6064,9 +6328,8 @@
       <c r="E46" t="s">
         <v>15</v>
       </c>
-      <c r="F46" t="str" cm="1">
-        <f t="array" ref="F46">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-15 00:00:00</v>
+      <c r="F46" s="1">
+        <v>45337</v>
       </c>
       <c r="G46" t="str" cm="1">
         <f t="array" ref="G46">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6097,9 +6360,8 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47" t="str" cm="1">
-        <f t="array" ref="F47">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-16 00:00:00</v>
+      <c r="F47" s="1">
+        <v>45338</v>
       </c>
       <c r="G47" t="str" cm="1">
         <f t="array" ref="G47">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6130,9 +6392,8 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="str" cm="1">
-        <f t="array" ref="F48">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-17 00:00:00</v>
+      <c r="F48" s="1">
+        <v>45339</v>
       </c>
       <c r="G48" t="str" cm="1">
         <f t="array" ref="G48">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6163,9 +6424,8 @@
       <c r="E49" t="s">
         <v>15</v>
       </c>
-      <c r="F49" t="str" cm="1">
-        <f t="array" ref="F49">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-18 00:00:00</v>
+      <c r="F49" s="1">
+        <v>45340</v>
       </c>
       <c r="G49" t="str" cm="1">
         <f t="array" ref="G49">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6196,9 +6456,8 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="F50" t="str" cm="1">
-        <f t="array" ref="F50">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-19 00:00:00</v>
+      <c r="F50" s="1">
+        <v>45341</v>
       </c>
       <c r="G50" t="str" cm="1">
         <f t="array" ref="G50">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6229,9 +6488,8 @@
       <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51" t="str" cm="1">
-        <f t="array" ref="F51">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-20 00:00:00</v>
+      <c r="F51" s="1">
+        <v>45342</v>
       </c>
       <c r="G51" t="str" cm="1">
         <f t="array" ref="G51">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6262,9 +6520,8 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
-      <c r="F52" t="str" cm="1">
-        <f t="array" ref="F52">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-21 00:00:00</v>
+      <c r="F52" s="1">
+        <v>45343</v>
       </c>
       <c r="G52" t="str" cm="1">
         <f t="array" ref="G52">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6295,9 +6552,8 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-      <c r="F53" t="str" cm="1">
-        <f t="array" ref="F53">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-22 00:00:00</v>
+      <c r="F53" s="1">
+        <v>45344</v>
       </c>
       <c r="G53" t="str" cm="1">
         <f t="array" ref="G53">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6328,9 +6584,8 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F54" t="str" cm="1">
-        <f t="array" ref="F54">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-23 00:00:00</v>
+      <c r="F54" s="1">
+        <v>45345</v>
       </c>
       <c r="G54" t="str" cm="1">
         <f t="array" ref="G54">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6361,9 +6616,8 @@
       <c r="E55" t="s">
         <v>15</v>
       </c>
-      <c r="F55" t="str" cm="1">
-        <f t="array" ref="F55">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-24 00:00:00</v>
+      <c r="F55" s="1">
+        <v>45346</v>
       </c>
       <c r="G55" t="str" cm="1">
         <f t="array" ref="G55">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6394,9 +6648,8 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-      <c r="F56" t="str" cm="1">
-        <f t="array" ref="F56">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-25 00:00:00</v>
+      <c r="F56" s="1">
+        <v>45347</v>
       </c>
       <c r="G56" t="str" cm="1">
         <f t="array" ref="G56">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6427,9 +6680,8 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-      <c r="F57" t="str" cm="1">
-        <f t="array" ref="F57">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-26 00:00:00</v>
+      <c r="F57" s="1">
+        <v>45348</v>
       </c>
       <c r="G57" t="str" cm="1">
         <f t="array" ref="G57">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6460,9 +6712,8 @@
       <c r="E58" t="s">
         <v>15</v>
       </c>
-      <c r="F58" t="str" cm="1">
-        <f t="array" ref="F58">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-27 00:00:00</v>
+      <c r="F58" s="1">
+        <v>45349</v>
       </c>
       <c r="G58" t="str" cm="1">
         <f t="array" ref="G58">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6493,9 +6744,8 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="F59" t="str" cm="1">
-        <f t="array" ref="F59">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-28 00:00:00</v>
+      <c r="F59" s="1">
+        <v>45350</v>
       </c>
       <c r="G59" t="str" cm="1">
         <f t="array" ref="G59">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6526,9 +6776,8 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60" t="str" cm="1">
-        <f t="array" ref="F60">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-29 00:00:00</v>
+      <c r="F60" s="1">
+        <v>45351</v>
       </c>
       <c r="G60" t="str" cm="1">
         <f t="array" ref="G60">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6559,9 +6808,8 @@
       <c r="E61" t="s">
         <v>15</v>
       </c>
-      <c r="F61" t="str" cm="1">
-        <f t="array" ref="F61">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-01 00:00:00</v>
+      <c r="F61" s="1">
+        <v>45352</v>
       </c>
       <c r="G61" t="str" cm="1">
         <f t="array" ref="G61">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6592,9 +6840,8 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" t="str" cm="1">
-        <f t="array" ref="F62">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-02 00:00:00</v>
+      <c r="F62" s="1">
+        <v>45353</v>
       </c>
       <c r="G62" t="str" cm="1">
         <f t="array" ref="G62">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6625,9 +6872,8 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="F63" t="str" cm="1">
-        <f t="array" ref="F63">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-03 00:00:00</v>
+      <c r="F63" s="1">
+        <v>45354</v>
       </c>
       <c r="G63" t="str" cm="1">
         <f t="array" ref="G63">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6658,9 +6904,8 @@
       <c r="E64" t="s">
         <v>15</v>
       </c>
-      <c r="F64" t="str" cm="1">
-        <f t="array" ref="F64">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-04 00:00:00</v>
+      <c r="F64" s="1">
+        <v>45355</v>
       </c>
       <c r="G64" t="str" cm="1">
         <f t="array" ref="G64">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6691,9 +6936,8 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="F65" t="str" cm="1">
-        <f t="array" ref="F65">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-05 00:00:00</v>
+      <c r="F65" s="1">
+        <v>45356</v>
       </c>
       <c r="G65" t="str" cm="1">
         <f t="array" ref="G65">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6724,9 +6968,8 @@
       <c r="E66" t="s">
         <v>12</v>
       </c>
-      <c r="F66" t="str" cm="1">
-        <f t="array" ref="F66">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-06 00:00:00</v>
+      <c r="F66" s="1">
+        <v>45357</v>
       </c>
       <c r="G66" t="str" cm="1">
         <f t="array" ref="G66">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6757,9 +7000,8 @@
       <c r="E67" t="s">
         <v>15</v>
       </c>
-      <c r="F67" t="str" cm="1">
-        <f t="array" ref="F67">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-07 00:00:00</v>
+      <c r="F67" s="1">
+        <v>45358</v>
       </c>
       <c r="G67" t="str" cm="1">
         <f t="array" ref="G67">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6790,9 +7032,8 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="F68" t="str" cm="1">
-        <f t="array" ref="F68">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-08 00:00:00</v>
+      <c r="F68" s="1">
+        <v>45359</v>
       </c>
       <c r="G68" t="str" cm="1">
         <f t="array" ref="G68">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6823,9 +7064,8 @@
       <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="F69" t="str" cm="1">
-        <f t="array" ref="F69">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-09 00:00:00</v>
+      <c r="F69" s="1">
+        <v>45360</v>
       </c>
       <c r="G69" t="str" cm="1">
         <f t="array" ref="G69">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6856,9 +7096,8 @@
       <c r="E70" t="s">
         <v>15</v>
       </c>
-      <c r="F70" t="str" cm="1">
-        <f t="array" ref="F70">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-10 00:00:00</v>
+      <c r="F70" s="1">
+        <v>45361</v>
       </c>
       <c r="G70" t="str" cm="1">
         <f t="array" ref="G70">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6889,9 +7128,8 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="F71" t="str" cm="1">
-        <f t="array" ref="F71">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-11 00:00:00</v>
+      <c r="F71" s="1">
+        <v>45362</v>
       </c>
       <c r="G71" t="str" cm="1">
         <f t="array" ref="G71">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6922,9 +7160,8 @@
       <c r="E72" t="s">
         <v>12</v>
       </c>
-      <c r="F72" t="str" cm="1">
-        <f t="array" ref="F72">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-12 00:00:00</v>
+      <c r="F72" s="1">
+        <v>45363</v>
       </c>
       <c r="G72" t="str" cm="1">
         <f t="array" ref="G72">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6955,9 +7192,8 @@
       <c r="E73" t="s">
         <v>15</v>
       </c>
-      <c r="F73" t="str" cm="1">
-        <f t="array" ref="F73">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-13 00:00:00</v>
+      <c r="F73" s="1">
+        <v>45364</v>
       </c>
       <c r="G73" t="str" cm="1">
         <f t="array" ref="G73">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6988,9 +7224,8 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-      <c r="F74" t="str" cm="1">
-        <f t="array" ref="F74">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-14 00:00:00</v>
+      <c r="F74" s="1">
+        <v>45365</v>
       </c>
       <c r="G74" t="str" cm="1">
         <f t="array" ref="G74">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7021,9 +7256,8 @@
       <c r="E75" t="s">
         <v>12</v>
       </c>
-      <c r="F75" t="str" cm="1">
-        <f t="array" ref="F75">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-15 00:00:00</v>
+      <c r="F75" s="1">
+        <v>45366</v>
       </c>
       <c r="G75" t="str" cm="1">
         <f t="array" ref="G75">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7054,9 +7288,8 @@
       <c r="E76" t="s">
         <v>15</v>
       </c>
-      <c r="F76" t="str" cm="1">
-        <f t="array" ref="F76">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-16 00:00:00</v>
+      <c r="F76" s="1">
+        <v>45367</v>
       </c>
       <c r="G76" t="str" cm="1">
         <f t="array" ref="G76">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7087,9 +7320,8 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="F77" t="str" cm="1">
-        <f t="array" ref="F77">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-17 00:00:00</v>
+      <c r="F77" s="1">
+        <v>45368</v>
       </c>
       <c r="G77" t="str" cm="1">
         <f t="array" ref="G77">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7120,9 +7352,8 @@
       <c r="E78" t="s">
         <v>12</v>
       </c>
-      <c r="F78" t="str" cm="1">
-        <f t="array" ref="F78">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-18 00:00:00</v>
+      <c r="F78" s="1">
+        <v>45369</v>
       </c>
       <c r="G78" t="str" cm="1">
         <f t="array" ref="G78">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7153,9 +7384,8 @@
       <c r="E79" t="s">
         <v>15</v>
       </c>
-      <c r="F79" t="str" cm="1">
-        <f t="array" ref="F79">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-19 00:00:00</v>
+      <c r="F79" s="1">
+        <v>45370</v>
       </c>
       <c r="G79" t="str" cm="1">
         <f t="array" ref="G79">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7186,9 +7416,8 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-      <c r="F80" t="str" cm="1">
-        <f t="array" ref="F80">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-20 00:00:00</v>
+      <c r="F80" s="1">
+        <v>45371</v>
       </c>
       <c r="G80" t="str" cm="1">
         <f t="array" ref="G80">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7219,9 +7448,8 @@
       <c r="E81" t="s">
         <v>12</v>
       </c>
-      <c r="F81" t="str" cm="1">
-        <f t="array" ref="F81">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-21 00:00:00</v>
+      <c r="F81" s="1">
+        <v>45372</v>
       </c>
       <c r="G81" t="str" cm="1">
         <f t="array" ref="G81">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7252,9 +7480,8 @@
       <c r="E82" t="s">
         <v>15</v>
       </c>
-      <c r="F82" t="str" cm="1">
-        <f t="array" ref="F82">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-22 00:00:00</v>
+      <c r="F82" s="1">
+        <v>45373</v>
       </c>
       <c r="G82" t="str" cm="1">
         <f t="array" ref="G82">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7285,9 +7512,8 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-      <c r="F83" t="str" cm="1">
-        <f t="array" ref="F83">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-23 00:00:00</v>
+      <c r="F83" s="1">
+        <v>45374</v>
       </c>
       <c r="G83" t="str" cm="1">
         <f t="array" ref="G83">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7318,9 +7544,8 @@
       <c r="E84" t="s">
         <v>12</v>
       </c>
-      <c r="F84" t="str" cm="1">
-        <f t="array" ref="F84">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-24 00:00:00</v>
+      <c r="F84" s="1">
+        <v>45375</v>
       </c>
       <c r="G84" t="str" cm="1">
         <f t="array" ref="G84">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7351,9 +7576,8 @@
       <c r="E85" t="s">
         <v>15</v>
       </c>
-      <c r="F85" t="str" cm="1">
-        <f t="array" ref="F85">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-25 00:00:00</v>
+      <c r="F85" s="1">
+        <v>45376</v>
       </c>
       <c r="G85" t="str" cm="1">
         <f t="array" ref="G85">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7384,9 +7608,8 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="F86" t="str" cm="1">
-        <f t="array" ref="F86">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-26 00:00:00</v>
+      <c r="F86" s="1">
+        <v>45377</v>
       </c>
       <c r="G86" t="str" cm="1">
         <f t="array" ref="G86">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7417,9 +7640,8 @@
       <c r="E87" t="s">
         <v>12</v>
       </c>
-      <c r="F87" t="str" cm="1">
-        <f t="array" ref="F87">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-27 00:00:00</v>
+      <c r="F87" s="1">
+        <v>45378</v>
       </c>
       <c r="G87" t="str" cm="1">
         <f t="array" ref="G87">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7450,9 +7672,8 @@
       <c r="E88" t="s">
         <v>15</v>
       </c>
-      <c r="F88" t="str" cm="1">
-        <f t="array" ref="F88">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-28 00:00:00</v>
+      <c r="F88" s="1">
+        <v>45379</v>
       </c>
       <c r="G88" t="str" cm="1">
         <f t="array" ref="G88">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7483,9 +7704,8 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-      <c r="F89" t="str" cm="1">
-        <f t="array" ref="F89">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-29 00:00:00</v>
+      <c r="F89" s="1">
+        <v>45380</v>
       </c>
       <c r="G89" t="str" cm="1">
         <f t="array" ref="G89">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7516,9 +7736,8 @@
       <c r="E90" t="s">
         <v>12</v>
       </c>
-      <c r="F90" t="str" cm="1">
-        <f t="array" ref="F90">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-30 00:00:00</v>
+      <c r="F90" s="1">
+        <v>45381</v>
       </c>
       <c r="G90" t="str" cm="1">
         <f t="array" ref="G90">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7549,9 +7768,8 @@
       <c r="E91" t="s">
         <v>15</v>
       </c>
-      <c r="F91" t="str" cm="1">
-        <f t="array" ref="F91">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-31 00:00:00</v>
+      <c r="F91" s="1">
+        <v>45382</v>
       </c>
       <c r="G91" t="str" cm="1">
         <f t="array" ref="G91">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7582,9 +7800,8 @@
       <c r="E92" t="s">
         <v>9</v>
       </c>
-      <c r="F92" t="str" cm="1">
-        <f t="array" ref="F92">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-01 00:00:00</v>
+      <c r="F92" s="1">
+        <v>45383</v>
       </c>
       <c r="G92" t="str" cm="1">
         <f t="array" ref="G92">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7615,9 +7832,8 @@
       <c r="E93" t="s">
         <v>12</v>
       </c>
-      <c r="F93" t="str" cm="1">
-        <f t="array" ref="F93">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-02 00:00:00</v>
+      <c r="F93" s="1">
+        <v>45384</v>
       </c>
       <c r="G93" t="str" cm="1">
         <f t="array" ref="G93">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7648,9 +7864,8 @@
       <c r="E94" t="s">
         <v>15</v>
       </c>
-      <c r="F94" t="str" cm="1">
-        <f t="array" ref="F94">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-03 00:00:00</v>
+      <c r="F94" s="1">
+        <v>45385</v>
       </c>
       <c r="G94" t="str" cm="1">
         <f t="array" ref="G94">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7681,9 +7896,8 @@
       <c r="E95" t="s">
         <v>9</v>
       </c>
-      <c r="F95" t="str" cm="1">
-        <f t="array" ref="F95">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-04 00:00:00</v>
+      <c r="F95" s="1">
+        <v>45386</v>
       </c>
       <c r="G95" t="str" cm="1">
         <f t="array" ref="G95">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7714,9 +7928,8 @@
       <c r="E96" t="s">
         <v>12</v>
       </c>
-      <c r="F96" t="str" cm="1">
-        <f t="array" ref="F96">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-05 00:00:00</v>
+      <c r="F96" s="1">
+        <v>45387</v>
       </c>
       <c r="G96" t="str" cm="1">
         <f t="array" ref="G96">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7747,12 +7960,11 @@
       <c r="E97" t="s">
         <v>15</v>
       </c>
-      <c r="F97" t="s">
-        <v>392</v>
-      </c>
-      <c r="G97" cm="1">
-        <f t="array" ref="G97">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0</v>
+      <c r="F97" s="1">
+        <v>45388</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="H97" t="str" cm="1">
         <f t="array" ref="H97">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -7779,12 +7991,11 @@
       <c r="E98" t="s">
         <v>9</v>
       </c>
-      <c r="F98" t="s">
-        <v>395</v>
-      </c>
-      <c r="G98" cm="1">
-        <f t="array" ref="G98">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0</v>
+      <c r="F98" s="1">
+        <v>45389</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="H98" t="str" cm="1">
         <f t="array" ref="H98">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -7811,9 +8022,8 @@
       <c r="E99" t="s">
         <v>12</v>
       </c>
-      <c r="F99" t="str" cm="1">
-        <f t="array" ref="F99">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-08 00:00:00</v>
+      <c r="F99" s="1">
+        <v>45390</v>
       </c>
       <c r="G99" t="str" cm="1">
         <f t="array" ref="G99">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7844,12 +8054,11 @@
       <c r="E100" t="s">
         <v>15</v>
       </c>
-      <c r="F100" t="s">
-        <v>402</v>
-      </c>
-      <c r="G100" cm="1">
-        <f t="array" ref="G100">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0</v>
+      <c r="F100" s="1">
+        <v>45391</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="H100" t="str" cm="1">
         <f t="array" ref="H100">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -7876,9 +8085,8 @@
       <c r="E101" t="s">
         <v>9</v>
       </c>
-      <c r="F101" t="str" cm="1">
-        <f t="array" ref="F101">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-10 00:00:00</v>
+      <c r="F101" s="1">
+        <v>45392</v>
       </c>
       <c r="G101" t="str" cm="1">
         <f t="array" ref="G101">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7909,9 +8117,8 @@
       <c r="E102" t="s">
         <v>12</v>
       </c>
-      <c r="F102" t="str" cm="1">
-        <f t="array" ref="F102">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-11 00:00:00</v>
+      <c r="F102" s="1">
+        <v>45393</v>
       </c>
       <c r="G102" t="str" cm="1">
         <f t="array" ref="G102">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7942,9 +8149,8 @@
       <c r="E103" t="s">
         <v>15</v>
       </c>
-      <c r="F103" t="str" cm="1">
-        <f t="array" ref="F103">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-12 00:00:00</v>
+      <c r="F103" s="1">
+        <v>45394</v>
       </c>
       <c r="G103" t="str" cm="1">
         <f t="array" ref="G103">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7975,9 +8181,8 @@
       <c r="E104" t="s">
         <v>9</v>
       </c>
-      <c r="F104" t="str" cm="1">
-        <f t="array" ref="F104">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-13 00:00:00</v>
+      <c r="F104" s="1">
+        <v>45395</v>
       </c>
       <c r="G104" t="str" cm="1">
         <f t="array" ref="G104">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8008,9 +8213,8 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F105" t="str" cm="1">
-        <f t="array" ref="F105">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-14 00:00:00</v>
+      <c r="F105" s="1">
+        <v>45396</v>
       </c>
       <c r="G105" t="str" cm="1">
         <f t="array" ref="G105">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8041,9 +8245,8 @@
       <c r="E106" t="s">
         <v>15</v>
       </c>
-      <c r="F106" t="str" cm="1">
-        <f t="array" ref="F106">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-15 00:00:00</v>
+      <c r="F106" s="1">
+        <v>45397</v>
       </c>
       <c r="G106" t="str" cm="1">
         <f t="array" ref="G106">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8074,9 +8277,8 @@
       <c r="E107" t="s">
         <v>9</v>
       </c>
-      <c r="F107" t="str" cm="1">
-        <f t="array" ref="F107">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-16 00:00:00</v>
+      <c r="F107" s="1">
+        <v>45398</v>
       </c>
       <c r="G107" t="str" cm="1">
         <f t="array" ref="G107">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8107,9 +8309,8 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
-      <c r="F108" t="str" cm="1">
-        <f t="array" ref="F108">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-17 00:00:00</v>
+      <c r="F108" s="1">
+        <v>45399</v>
       </c>
       <c r="G108" t="str" cm="1">
         <f t="array" ref="G108">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8140,9 +8341,8 @@
       <c r="E109" t="s">
         <v>15</v>
       </c>
-      <c r="F109" t="str" cm="1">
-        <f t="array" ref="F109">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-18 00:00:00</v>
+      <c r="F109" s="1">
+        <v>45400</v>
       </c>
       <c r="G109" t="str" cm="1">
         <f t="array" ref="G109">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8173,9 +8373,8 @@
       <c r="E110" t="s">
         <v>9</v>
       </c>
-      <c r="F110" t="str" cm="1">
-        <f t="array" ref="F110">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-19 00:00:00</v>
+      <c r="F110" s="1">
+        <v>45401</v>
       </c>
       <c r="G110" t="str" cm="1">
         <f t="array" ref="G110">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8206,9 +8405,8 @@
       <c r="E111" t="s">
         <v>12</v>
       </c>
-      <c r="F111" t="str" cm="1">
-        <f t="array" ref="F111">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-20 00:00:00</v>
+      <c r="F111" s="1">
+        <v>45402</v>
       </c>
       <c r="G111" t="str" cm="1">
         <f t="array" ref="G111">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8239,9 +8437,8 @@
       <c r="E112" t="s">
         <v>15</v>
       </c>
-      <c r="F112" t="str" cm="1">
-        <f t="array" ref="F112">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-21 00:00:00</v>
+      <c r="F112" s="1">
+        <v>45403</v>
       </c>
       <c r="G112" t="str" cm="1">
         <f t="array" ref="G112">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8272,9 +8469,8 @@
       <c r="E113" t="s">
         <v>9</v>
       </c>
-      <c r="F113" t="str" cm="1">
-        <f t="array" ref="F113">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-22 00:00:00</v>
+      <c r="F113" s="1">
+        <v>45404</v>
       </c>
       <c r="G113" t="str" cm="1">
         <f t="array" ref="G113">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8305,9 +8501,8 @@
       <c r="E114" t="s">
         <v>12</v>
       </c>
-      <c r="F114" t="str" cm="1">
-        <f t="array" ref="F114">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-23 00:00:00</v>
+      <c r="F114" s="1">
+        <v>45405</v>
       </c>
       <c r="G114" t="str" cm="1">
         <f t="array" ref="G114">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8338,9 +8533,8 @@
       <c r="E115" t="s">
         <v>15</v>
       </c>
-      <c r="F115" t="str" cm="1">
-        <f t="array" ref="F115">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-24 00:00:00</v>
+      <c r="F115" s="1">
+        <v>45406</v>
       </c>
       <c r="G115" t="str" cm="1">
         <f t="array" ref="G115">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8371,9 +8565,8 @@
       <c r="E116" t="s">
         <v>9</v>
       </c>
-      <c r="F116" t="str" cm="1">
-        <f t="array" ref="F116">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-25 00:00:00</v>
+      <c r="F116" s="1">
+        <v>45407</v>
       </c>
       <c r="G116" t="str" cm="1">
         <f t="array" ref="G116">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8404,9 +8597,8 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
-      <c r="F117" t="str" cm="1">
-        <f t="array" ref="F117">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-26 00:00:00</v>
+      <c r="F117" s="1">
+        <v>45408</v>
       </c>
       <c r="G117" t="str" cm="1">
         <f t="array" ref="G117">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8437,9 +8629,8 @@
       <c r="E118" t="s">
         <v>15</v>
       </c>
-      <c r="F118" t="str" cm="1">
-        <f t="array" ref="F118">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-27 00:00:00</v>
+      <c r="F118" s="1">
+        <v>45409</v>
       </c>
       <c r="G118" t="str" cm="1">
         <f t="array" ref="G118">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8470,9 +8661,8 @@
       <c r="E119" t="s">
         <v>9</v>
       </c>
-      <c r="F119" t="str" cm="1">
-        <f t="array" ref="F119">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-28 00:00:00</v>
+      <c r="F119" s="1">
+        <v>45410</v>
       </c>
       <c r="G119" t="str" cm="1">
         <f t="array" ref="G119">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8503,9 +8693,8 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-      <c r="F120" t="str" cm="1">
-        <f t="array" ref="F120">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-29 00:00:00</v>
+      <c r="F120" s="1">
+        <v>45411</v>
       </c>
       <c r="G120" t="str" cm="1">
         <f t="array" ref="G120">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8536,9 +8725,8 @@
       <c r="E121" t="s">
         <v>15</v>
       </c>
-      <c r="F121" t="str" cm="1">
-        <f t="array" ref="F121">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-30 00:00:00</v>
+      <c r="F121" s="1">
+        <v>45412</v>
       </c>
       <c r="G121" t="str" cm="1">
         <f t="array" ref="G121">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8569,9 +8757,8 @@
       <c r="E122" t="s">
         <v>9</v>
       </c>
-      <c r="F122" t="str" cm="1">
-        <f t="array" ref="F122">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-01 00:00:00</v>
+      <c r="F122" s="1">
+        <v>45413</v>
       </c>
       <c r="G122" t="str" cm="1">
         <f t="array" ref="G122">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8602,9 +8789,8 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
-      <c r="F123" t="str" cm="1">
-        <f t="array" ref="F123">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-02 00:00:00</v>
+      <c r="F123" s="1">
+        <v>45414</v>
       </c>
       <c r="G123" t="str" cm="1">
         <f t="array" ref="G123">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8635,9 +8821,8 @@
       <c r="E124" t="s">
         <v>15</v>
       </c>
-      <c r="F124" t="str" cm="1">
-        <f t="array" ref="F124">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-03 00:00:00</v>
+      <c r="F124" s="1">
+        <v>45415</v>
       </c>
       <c r="G124" t="str" cm="1">
         <f t="array" ref="G124">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8668,9 +8853,8 @@
       <c r="E125" t="s">
         <v>9</v>
       </c>
-      <c r="F125" t="str" cm="1">
-        <f t="array" ref="F125">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-04 00:00:00</v>
+      <c r="F125" s="1">
+        <v>45416</v>
       </c>
       <c r="G125" t="str" cm="1">
         <f t="array" ref="G125">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8701,9 +8885,8 @@
       <c r="E126" t="s">
         <v>12</v>
       </c>
-      <c r="F126" t="str" cm="1">
-        <f t="array" ref="F126">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-05 00:00:00</v>
+      <c r="F126" s="1">
+        <v>45417</v>
       </c>
       <c r="G126" t="str" cm="1">
         <f t="array" ref="G126">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8734,9 +8917,8 @@
       <c r="E127" t="s">
         <v>15</v>
       </c>
-      <c r="F127" t="str" cm="1">
-        <f t="array" ref="F127">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-06 00:00:00</v>
+      <c r="F127" s="1">
+        <v>45418</v>
       </c>
       <c r="G127" t="str" cm="1">
         <f t="array" ref="G127">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8767,9 +8949,8 @@
       <c r="E128" t="s">
         <v>9</v>
       </c>
-      <c r="F128" t="str" cm="1">
-        <f t="array" ref="F128">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-07 00:00:00</v>
+      <c r="F128" s="1">
+        <v>45419</v>
       </c>
       <c r="G128" t="str" cm="1">
         <f t="array" ref="G128">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8800,9 +8981,8 @@
       <c r="E129" t="s">
         <v>12</v>
       </c>
-      <c r="F129" t="str" cm="1">
-        <f t="array" ref="F129">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-08 00:00:00</v>
+      <c r="F129" s="1">
+        <v>45420</v>
       </c>
       <c r="G129" t="str" cm="1">
         <f t="array" ref="G129">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8833,9 +9013,8 @@
       <c r="E130" t="s">
         <v>15</v>
       </c>
-      <c r="F130" t="str" cm="1">
-        <f t="array" ref="F130">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-09 00:00:00</v>
+      <c r="F130" s="1">
+        <v>45421</v>
       </c>
       <c r="G130" t="str" cm="1">
         <f t="array" ref="G130">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8866,9 +9045,8 @@
       <c r="E131" t="s">
         <v>9</v>
       </c>
-      <c r="F131" t="str" cm="1">
-        <f t="array" ref="F131">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-10 00:00:00</v>
+      <c r="F131" s="1">
+        <v>45422</v>
       </c>
       <c r="G131" t="str" cm="1">
         <f t="array" ref="G131">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8899,9 +9077,8 @@
       <c r="E132" t="s">
         <v>12</v>
       </c>
-      <c r="F132" t="str" cm="1">
-        <f t="array" ref="F132">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-11 00:00:00</v>
+      <c r="F132" s="1">
+        <v>45423</v>
       </c>
       <c r="G132" t="str" cm="1">
         <f t="array" ref="G132">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8932,9 +9109,8 @@
       <c r="E133" t="s">
         <v>15</v>
       </c>
-      <c r="F133" t="str" cm="1">
-        <f t="array" ref="F133">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-12 00:00:00</v>
+      <c r="F133" s="1">
+        <v>45424</v>
       </c>
       <c r="G133" t="str" cm="1">
         <f t="array" ref="G133">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8965,9 +9141,8 @@
       <c r="E134" t="s">
         <v>9</v>
       </c>
-      <c r="F134" t="str" cm="1">
-        <f t="array" ref="F134">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-13 00:00:00</v>
+      <c r="F134" s="1">
+        <v>45425</v>
       </c>
       <c r="G134" t="str" cm="1">
         <f t="array" ref="G134">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8998,9 +9173,8 @@
       <c r="E135" t="s">
         <v>12</v>
       </c>
-      <c r="F135" t="str" cm="1">
-        <f t="array" ref="F135">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-14 00:00:00</v>
+      <c r="F135" s="1">
+        <v>45426</v>
       </c>
       <c r="G135" t="str" cm="1">
         <f t="array" ref="G135">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9031,9 +9205,8 @@
       <c r="E136" t="s">
         <v>15</v>
       </c>
-      <c r="F136" t="str" cm="1">
-        <f t="array" ref="F136">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-15 00:00:00</v>
+      <c r="F136" s="1">
+        <v>45427</v>
       </c>
       <c r="G136" t="str" cm="1">
         <f t="array" ref="G136">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9064,9 +9237,8 @@
       <c r="E137" t="s">
         <v>9</v>
       </c>
-      <c r="F137" t="str" cm="1">
-        <f t="array" ref="F137">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-16 00:00:00</v>
+      <c r="F137" s="1">
+        <v>45428</v>
       </c>
       <c r="G137" t="str" cm="1">
         <f t="array" ref="G137">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9097,9 +9269,8 @@
       <c r="E138" t="s">
         <v>12</v>
       </c>
-      <c r="F138" t="str" cm="1">
-        <f t="array" ref="F138">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-17 00:00:00</v>
+      <c r="F138" s="1">
+        <v>45429</v>
       </c>
       <c r="G138" t="str" cm="1">
         <f t="array" ref="G138">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9130,9 +9301,8 @@
       <c r="E139" t="s">
         <v>15</v>
       </c>
-      <c r="F139" t="str" cm="1">
-        <f t="array" ref="F139">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-18 00:00:00</v>
+      <c r="F139" s="1">
+        <v>45430</v>
       </c>
       <c r="G139" t="str" cm="1">
         <f t="array" ref="G139">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9163,9 +9333,8 @@
       <c r="E140" t="s">
         <v>9</v>
       </c>
-      <c r="F140" t="str" cm="1">
-        <f t="array" ref="F140">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-19 00:00:00</v>
+      <c r="F140" s="1">
+        <v>45431</v>
       </c>
       <c r="G140" t="str" cm="1">
         <f t="array" ref="G140">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9196,9 +9365,8 @@
       <c r="E141" t="s">
         <v>12</v>
       </c>
-      <c r="F141" t="str" cm="1">
-        <f t="array" ref="F141">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-20 00:00:00</v>
+      <c r="F141" s="1">
+        <v>45432</v>
       </c>
       <c r="G141" t="str" cm="1">
         <f t="array" ref="G141">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9229,9 +9397,8 @@
       <c r="E142" t="s">
         <v>15</v>
       </c>
-      <c r="F142" t="str" cm="1">
-        <f t="array" ref="F142">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-21 00:00:00</v>
+      <c r="F142" s="1">
+        <v>45433</v>
       </c>
       <c r="G142" t="str" cm="1">
         <f t="array" ref="G142">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9262,9 +9429,8 @@
       <c r="E143" t="s">
         <v>9</v>
       </c>
-      <c r="F143" t="str" cm="1">
-        <f t="array" ref="F143">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-22 00:00:00</v>
+      <c r="F143" s="1">
+        <v>45434</v>
       </c>
       <c r="G143" t="str" cm="1">
         <f t="array" ref="G143">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9295,9 +9461,8 @@
       <c r="E144" t="s">
         <v>12</v>
       </c>
-      <c r="F144" t="str" cm="1">
-        <f t="array" ref="F144">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-23 00:00:00</v>
+      <c r="F144" s="1">
+        <v>45435</v>
       </c>
       <c r="G144" t="str" cm="1">
         <f t="array" ref="G144">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9328,9 +9493,8 @@
       <c r="E145" t="s">
         <v>15</v>
       </c>
-      <c r="F145" t="str" cm="1">
-        <f t="array" ref="F145">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-24 00:00:00</v>
+      <c r="F145" s="1">
+        <v>45436</v>
       </c>
       <c r="G145" t="str" cm="1">
         <f t="array" ref="G145">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9361,9 +9525,8 @@
       <c r="E146" t="s">
         <v>9</v>
       </c>
-      <c r="F146" t="str" cm="1">
-        <f t="array" ref="F146">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-25 00:00:00</v>
+      <c r="F146" s="1">
+        <v>45437</v>
       </c>
       <c r="G146" t="str" cm="1">
         <f t="array" ref="G146">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9394,9 +9557,8 @@
       <c r="E147" t="s">
         <v>12</v>
       </c>
-      <c r="F147" t="str" cm="1">
-        <f t="array" ref="F147">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-26 00:00:00</v>
+      <c r="F147" s="1">
+        <v>45438</v>
       </c>
       <c r="G147" t="str" cm="1">
         <f t="array" ref="G147">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9427,9 +9589,8 @@
       <c r="E148" t="s">
         <v>15</v>
       </c>
-      <c r="F148" t="str" cm="1">
-        <f t="array" ref="F148">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-27 00:00:00</v>
+      <c r="F148" s="1">
+        <v>45439</v>
       </c>
       <c r="G148" t="str" cm="1">
         <f t="array" ref="G148">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9460,9 +9621,8 @@
       <c r="E149" t="s">
         <v>9</v>
       </c>
-      <c r="F149" t="str" cm="1">
-        <f t="array" ref="F149">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-28 00:00:00</v>
+      <c r="F149" s="1">
+        <v>45440</v>
       </c>
       <c r="G149" t="str" cm="1">
         <f t="array" ref="G149">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9493,9 +9653,8 @@
       <c r="E150" t="s">
         <v>12</v>
       </c>
-      <c r="F150" t="str" cm="1">
-        <f t="array" ref="F150">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-29 00:00:00</v>
+      <c r="F150" s="1">
+        <v>45441</v>
       </c>
       <c r="G150" t="str" cm="1">
         <f t="array" ref="G150">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9526,9 +9685,8 @@
       <c r="E151" t="s">
         <v>15</v>
       </c>
-      <c r="F151" t="str" cm="1">
-        <f t="array" ref="F151">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-30 00:00:00</v>
+      <c r="F151" s="1">
+        <v>45442</v>
       </c>
       <c r="G151" t="str" cm="1">
         <f t="array" ref="G151">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9559,9 +9717,8 @@
       <c r="E152" t="s">
         <v>9</v>
       </c>
-      <c r="F152" t="str" cm="1">
-        <f t="array" ref="F152">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-31 00:00:00</v>
+      <c r="F152" s="1">
+        <v>45443</v>
       </c>
       <c r="G152" t="str" cm="1">
         <f t="array" ref="G152">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9592,9 +9749,8 @@
       <c r="E153" t="s">
         <v>12</v>
       </c>
-      <c r="F153" t="str" cm="1">
-        <f t="array" ref="F153">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-01 00:00:00</v>
+      <c r="F153" s="1">
+        <v>45444</v>
       </c>
       <c r="G153" t="str" cm="1">
         <f t="array" ref="G153">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9625,9 +9781,8 @@
       <c r="E154" t="s">
         <v>15</v>
       </c>
-      <c r="F154" t="str" cm="1">
-        <f t="array" ref="F154">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-02 00:00:00</v>
+      <c r="F154" s="1">
+        <v>45445</v>
       </c>
       <c r="G154" t="str" cm="1">
         <f t="array" ref="G154">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9658,9 +9813,8 @@
       <c r="E155" t="s">
         <v>9</v>
       </c>
-      <c r="F155" t="str" cm="1">
-        <f t="array" ref="F155">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-03 00:00:00</v>
+      <c r="F155" s="1">
+        <v>45446</v>
       </c>
       <c r="G155" t="str" cm="1">
         <f t="array" ref="G155">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9691,9 +9845,8 @@
       <c r="E156" t="s">
         <v>12</v>
       </c>
-      <c r="F156" t="str" cm="1">
-        <f t="array" ref="F156">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-04 00:00:00</v>
+      <c r="F156" s="1">
+        <v>45447</v>
       </c>
       <c r="G156" t="str" cm="1">
         <f t="array" ref="G156">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9724,9 +9877,8 @@
       <c r="E157" t="s">
         <v>15</v>
       </c>
-      <c r="F157" t="str" cm="1">
-        <f t="array" ref="F157">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-05 00:00:00</v>
+      <c r="F157" s="1">
+        <v>45448</v>
       </c>
       <c r="G157" t="str" cm="1">
         <f t="array" ref="G157">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9757,9 +9909,8 @@
       <c r="E158" t="s">
         <v>9</v>
       </c>
-      <c r="F158" t="str" cm="1">
-        <f t="array" ref="F158">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-06 00:00:00</v>
+      <c r="F158" s="1">
+        <v>45449</v>
       </c>
       <c r="G158" t="str" cm="1">
         <f t="array" ref="G158">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9790,9 +9941,8 @@
       <c r="E159" t="s">
         <v>12</v>
       </c>
-      <c r="F159" t="str" cm="1">
-        <f t="array" ref="F159">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-07 00:00:00</v>
+      <c r="F159" s="1">
+        <v>45450</v>
       </c>
       <c r="G159" t="str" cm="1">
         <f t="array" ref="G159">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9823,9 +9973,8 @@
       <c r="E160" t="s">
         <v>15</v>
       </c>
-      <c r="F160" t="str" cm="1">
-        <f t="array" ref="F160">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-08 00:00:00</v>
+      <c r="F160" s="1">
+        <v>45451</v>
       </c>
       <c r="G160" t="str" cm="1">
         <f t="array" ref="G160">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9856,9 +10005,8 @@
       <c r="E161" t="s">
         <v>9</v>
       </c>
-      <c r="F161" t="str" cm="1">
-        <f t="array" ref="F161">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-09 00:00:00</v>
+      <c r="F161" s="1">
+        <v>45452</v>
       </c>
       <c r="G161" t="str" cm="1">
         <f t="array" ref="G161">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9889,9 +10037,8 @@
       <c r="E162" t="s">
         <v>12</v>
       </c>
-      <c r="F162" t="str" cm="1">
-        <f t="array" ref="F162">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-10 00:00:00</v>
+      <c r="F162" s="1">
+        <v>45453</v>
       </c>
       <c r="G162" t="str" cm="1">
         <f t="array" ref="G162">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9922,9 +10069,8 @@
       <c r="E163" t="s">
         <v>15</v>
       </c>
-      <c r="F163" t="str" cm="1">
-        <f t="array" ref="F163">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-11 00:00:00</v>
+      <c r="F163" s="1">
+        <v>45454</v>
       </c>
       <c r="G163" t="str" cm="1">
         <f t="array" ref="G163">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9955,9 +10101,8 @@
       <c r="E164" t="s">
         <v>9</v>
       </c>
-      <c r="F164" t="str" cm="1">
-        <f t="array" ref="F164">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-12 00:00:00</v>
+      <c r="F164" s="1">
+        <v>45455</v>
       </c>
       <c r="G164" t="str" cm="1">
         <f t="array" ref="G164">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9988,9 +10133,8 @@
       <c r="E165" t="s">
         <v>12</v>
       </c>
-      <c r="F165" t="str" cm="1">
-        <f t="array" ref="F165">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-13 00:00:00</v>
+      <c r="F165" s="1">
+        <v>45456</v>
       </c>
       <c r="G165" t="str" cm="1">
         <f t="array" ref="G165">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10021,9 +10165,8 @@
       <c r="E166" t="s">
         <v>15</v>
       </c>
-      <c r="F166" t="str" cm="1">
-        <f t="array" ref="F166">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-14 00:00:00</v>
+      <c r="F166" s="1">
+        <v>45457</v>
       </c>
       <c r="G166" t="str" cm="1">
         <f t="array" ref="G166">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10054,9 +10197,8 @@
       <c r="E167" t="s">
         <v>9</v>
       </c>
-      <c r="F167" t="str" cm="1">
-        <f t="array" ref="F167">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-15 00:00:00</v>
+      <c r="F167" s="1">
+        <v>45458</v>
       </c>
       <c r="G167" t="str" cm="1">
         <f t="array" ref="G167">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10087,9 +10229,8 @@
       <c r="E168" t="s">
         <v>12</v>
       </c>
-      <c r="F168" t="str" cm="1">
-        <f t="array" ref="F168">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-16 00:00:00</v>
+      <c r="F168" s="1">
+        <v>45459</v>
       </c>
       <c r="G168" t="str" cm="1">
         <f t="array" ref="G168">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10120,9 +10261,8 @@
       <c r="E169" t="s">
         <v>15</v>
       </c>
-      <c r="F169" t="str" cm="1">
-        <f t="array" ref="F169">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-17 00:00:00</v>
+      <c r="F169" s="1">
+        <v>45460</v>
       </c>
       <c r="G169" t="str" cm="1">
         <f t="array" ref="G169">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10153,9 +10293,8 @@
       <c r="E170" t="s">
         <v>9</v>
       </c>
-      <c r="F170" t="str" cm="1">
-        <f t="array" ref="F170">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-18 00:00:00</v>
+      <c r="F170" s="1">
+        <v>45461</v>
       </c>
       <c r="G170" t="str" cm="1">
         <f t="array" ref="G170">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10186,9 +10325,8 @@
       <c r="E171" t="s">
         <v>12</v>
       </c>
-      <c r="F171" t="str" cm="1">
-        <f t="array" ref="F171">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-19 00:00:00</v>
+      <c r="F171" s="1">
+        <v>45462</v>
       </c>
       <c r="G171" t="str" cm="1">
         <f t="array" ref="G171">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10219,9 +10357,8 @@
       <c r="E172" t="s">
         <v>15</v>
       </c>
-      <c r="F172" t="str" cm="1">
-        <f t="array" ref="F172">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-20 00:00:00</v>
+      <c r="F172" s="1">
+        <v>45463</v>
       </c>
       <c r="G172" t="str" cm="1">
         <f t="array" ref="G172">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10252,9 +10389,8 @@
       <c r="E173" t="s">
         <v>9</v>
       </c>
-      <c r="F173" t="str" cm="1">
-        <f t="array" ref="F173">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-21 00:00:00</v>
+      <c r="F173" s="1">
+        <v>45464</v>
       </c>
       <c r="G173" t="str" cm="1">
         <f t="array" ref="G173">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10285,9 +10421,8 @@
       <c r="E174" t="s">
         <v>12</v>
       </c>
-      <c r="F174" t="str" cm="1">
-        <f t="array" ref="F174">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-22 00:00:00</v>
+      <c r="F174" s="1">
+        <v>45465</v>
       </c>
       <c r="G174" t="str" cm="1">
         <f t="array" ref="G174">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10318,9 +10453,8 @@
       <c r="E175" t="s">
         <v>15</v>
       </c>
-      <c r="F175" t="str" cm="1">
-        <f t="array" ref="F175">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-23 00:00:00</v>
+      <c r="F175" s="1">
+        <v>45466</v>
       </c>
       <c r="G175" t="str" cm="1">
         <f t="array" ref="G175">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10351,9 +10485,8 @@
       <c r="E176" t="s">
         <v>9</v>
       </c>
-      <c r="F176" t="str" cm="1">
-        <f t="array" ref="F176">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-24 00:00:00</v>
+      <c r="F176" s="1">
+        <v>45467</v>
       </c>
       <c r="G176" t="str" cm="1">
         <f t="array" ref="G176">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10384,9 +10517,8 @@
       <c r="E177" t="s">
         <v>12</v>
       </c>
-      <c r="F177" t="str" cm="1">
-        <f t="array" ref="F177">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-25 00:00:00</v>
+      <c r="F177" s="1">
+        <v>45468</v>
       </c>
       <c r="G177" t="str" cm="1">
         <f t="array" ref="G177">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10417,9 +10549,8 @@
       <c r="E178" t="s">
         <v>15</v>
       </c>
-      <c r="F178" t="str" cm="1">
-        <f t="array" ref="F178">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-26 00:00:00</v>
+      <c r="F178" s="1">
+        <v>45469</v>
       </c>
       <c r="G178" t="str" cm="1">
         <f t="array" ref="G178">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10450,9 +10581,8 @@
       <c r="E179" t="s">
         <v>9</v>
       </c>
-      <c r="F179" t="str" cm="1">
-        <f t="array" ref="F179">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-27 00:00:00</v>
+      <c r="F179" s="1">
+        <v>45470</v>
       </c>
       <c r="G179" t="str" cm="1">
         <f t="array" ref="G179">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10483,9 +10613,8 @@
       <c r="E180" t="s">
         <v>12</v>
       </c>
-      <c r="F180" t="str" cm="1">
-        <f t="array" ref="F180">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-28 00:00:00</v>
+      <c r="F180" s="1">
+        <v>45471</v>
       </c>
       <c r="G180" t="str" cm="1">
         <f t="array" ref="G180">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10516,9 +10645,8 @@
       <c r="E181" t="s">
         <v>15</v>
       </c>
-      <c r="F181" t="str" cm="1">
-        <f t="array" ref="F181">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-29 00:00:00</v>
+      <c r="F181" s="1">
+        <v>45472</v>
       </c>
       <c r="G181" t="str" cm="1">
         <f t="array" ref="G181">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10549,9 +10677,8 @@
       <c r="E182" t="s">
         <v>9</v>
       </c>
-      <c r="F182" t="str" cm="1">
-        <f t="array" ref="F182">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-30 00:00:00</v>
+      <c r="F182" s="1">
+        <v>45473</v>
       </c>
       <c r="G182" t="str" cm="1">
         <f t="array" ref="G182">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10582,9 +10709,8 @@
       <c r="E183" t="s">
         <v>12</v>
       </c>
-      <c r="F183" t="str" cm="1">
-        <f t="array" ref="F183">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-01 00:00:00</v>
+      <c r="F183" s="1">
+        <v>45474</v>
       </c>
       <c r="G183" t="str" cm="1">
         <f t="array" ref="G183">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10615,9 +10741,8 @@
       <c r="E184" t="s">
         <v>15</v>
       </c>
-      <c r="F184" t="str" cm="1">
-        <f t="array" ref="F184">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-02 00:00:00</v>
+      <c r="F184" s="1">
+        <v>45475</v>
       </c>
       <c r="G184" t="str" cm="1">
         <f t="array" ref="G184">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10648,9 +10773,8 @@
       <c r="E185" t="s">
         <v>9</v>
       </c>
-      <c r="F185" t="str" cm="1">
-        <f t="array" ref="F185">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-03 00:00:00</v>
+      <c r="F185" s="1">
+        <v>45476</v>
       </c>
       <c r="G185" t="str" cm="1">
         <f t="array" ref="G185">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10681,9 +10805,8 @@
       <c r="E186" t="s">
         <v>12</v>
       </c>
-      <c r="F186" t="str" cm="1">
-        <f t="array" ref="F186">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-04 00:00:00</v>
+      <c r="F186" s="1">
+        <v>45477</v>
       </c>
       <c r="G186" t="str" cm="1">
         <f t="array" ref="G186">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10714,9 +10837,8 @@
       <c r="E187" t="s">
         <v>15</v>
       </c>
-      <c r="F187" t="str" cm="1">
-        <f t="array" ref="F187">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-05 00:00:00</v>
+      <c r="F187" s="1">
+        <v>45478</v>
       </c>
       <c r="G187" t="str" cm="1">
         <f t="array" ref="G187">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10747,9 +10869,8 @@
       <c r="E188" t="s">
         <v>9</v>
       </c>
-      <c r="F188" t="str" cm="1">
-        <f t="array" ref="F188">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-06 00:00:00</v>
+      <c r="F188" s="1">
+        <v>45479</v>
       </c>
       <c r="G188" t="str" cm="1">
         <f t="array" ref="G188">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10780,9 +10901,8 @@
       <c r="E189" t="s">
         <v>12</v>
       </c>
-      <c r="F189" t="str" cm="1">
-        <f t="array" ref="F189">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-07 00:00:00</v>
+      <c r="F189" s="1">
+        <v>45480</v>
       </c>
       <c r="G189" t="str" cm="1">
         <f t="array" ref="G189">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10813,9 +10933,8 @@
       <c r="E190" t="s">
         <v>15</v>
       </c>
-      <c r="F190" t="str" cm="1">
-        <f t="array" ref="F190">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-08 00:00:00</v>
+      <c r="F190" s="1">
+        <v>45481</v>
       </c>
       <c r="G190" t="str" cm="1">
         <f t="array" ref="G190">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10846,9 +10965,8 @@
       <c r="E191" t="s">
         <v>9</v>
       </c>
-      <c r="F191" t="str" cm="1">
-        <f t="array" ref="F191">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-09 00:00:00</v>
+      <c r="F191" s="1">
+        <v>45482</v>
       </c>
       <c r="G191" t="str" cm="1">
         <f t="array" ref="G191">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10879,9 +10997,8 @@
       <c r="E192" t="s">
         <v>12</v>
       </c>
-      <c r="F192" t="str" cm="1">
-        <f t="array" ref="F192">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-10 00:00:00</v>
+      <c r="F192" s="1">
+        <v>45483</v>
       </c>
       <c r="G192" t="str" cm="1">
         <f t="array" ref="G192">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10912,9 +11029,8 @@
       <c r="E193" t="s">
         <v>15</v>
       </c>
-      <c r="F193" t="str" cm="1">
-        <f t="array" ref="F193">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-11 00:00:00</v>
+      <c r="F193" s="1">
+        <v>45484</v>
       </c>
       <c r="G193" t="str" cm="1">
         <f t="array" ref="G193">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10945,9 +11061,8 @@
       <c r="E194" t="s">
         <v>9</v>
       </c>
-      <c r="F194" t="str" cm="1">
-        <f t="array" ref="F194">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-12 00:00:00</v>
+      <c r="F194" s="1">
+        <v>45485</v>
       </c>
       <c r="G194" t="str" cm="1">
         <f t="array" ref="G194">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10978,9 +11093,8 @@
       <c r="E195" t="s">
         <v>12</v>
       </c>
-      <c r="F195" t="str" cm="1">
-        <f t="array" ref="F195">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-13 00:00:00</v>
+      <c r="F195" s="1">
+        <v>45486</v>
       </c>
       <c r="G195" t="str" cm="1">
         <f t="array" ref="G195">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11011,9 +11125,8 @@
       <c r="E196" t="s">
         <v>15</v>
       </c>
-      <c r="F196" t="str" cm="1">
-        <f t="array" ref="F196">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-14 00:00:00</v>
+      <c r="F196" s="1">
+        <v>45487</v>
       </c>
       <c r="G196" t="str" cm="1">
         <f t="array" ref="G196">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11044,9 +11157,8 @@
       <c r="E197" t="s">
         <v>9</v>
       </c>
-      <c r="F197" t="str" cm="1">
-        <f t="array" ref="F197">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-15 00:00:00</v>
+      <c r="F197" s="1">
+        <v>45488</v>
       </c>
       <c r="G197" t="str" cm="1">
         <f t="array" ref="G197">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11077,9 +11189,8 @@
       <c r="E198" t="s">
         <v>12</v>
       </c>
-      <c r="F198" t="str" cm="1">
-        <f t="array" ref="F198">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-16 00:00:00</v>
+      <c r="F198" s="1">
+        <v>45489</v>
       </c>
       <c r="G198" t="str" cm="1">
         <f t="array" ref="G198">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11110,9 +11221,8 @@
       <c r="E199" t="s">
         <v>15</v>
       </c>
-      <c r="F199" t="str" cm="1">
-        <f t="array" ref="F199">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-17 00:00:00</v>
+      <c r="F199" s="1">
+        <v>45490</v>
       </c>
       <c r="G199" t="str" cm="1">
         <f t="array" ref="G199">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11143,9 +11253,8 @@
       <c r="E200" t="s">
         <v>9</v>
       </c>
-      <c r="F200" t="str" cm="1">
-        <f t="array" ref="F200">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-18 00:00:00</v>
+      <c r="F200" s="1">
+        <v>45491</v>
       </c>
       <c r="G200" t="str" cm="1">
         <f t="array" ref="G200">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11176,9 +11285,8 @@
       <c r="E201" t="s">
         <v>12</v>
       </c>
-      <c r="F201" t="str" cm="1">
-        <f t="array" ref="F201">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-19 00:00:00</v>
+      <c r="F201" s="1">
+        <v>45492</v>
       </c>
       <c r="G201" t="str" cm="1">
         <f t="array" ref="G201">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11209,9 +11317,8 @@
       <c r="E202" t="s">
         <v>15</v>
       </c>
-      <c r="F202" t="str" cm="1">
-        <f t="array" ref="F202">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-20 00:00:00</v>
+      <c r="F202" s="1">
+        <v>45493</v>
       </c>
       <c r="G202" t="str" cm="1">
         <f t="array" ref="G202">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11242,9 +11349,8 @@
       <c r="E203" t="s">
         <v>9</v>
       </c>
-      <c r="F203" t="str" cm="1">
-        <f t="array" ref="F203">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-21 00:00:00</v>
+      <c r="F203" s="1">
+        <v>45494</v>
       </c>
       <c r="G203" t="str" cm="1">
         <f t="array" ref="G203">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11275,9 +11381,8 @@
       <c r="E204" t="s">
         <v>12</v>
       </c>
-      <c r="F204" t="str" cm="1">
-        <f t="array" ref="F204">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-22 00:00:00</v>
+      <c r="F204" s="1">
+        <v>45495</v>
       </c>
       <c r="G204" t="str" cm="1">
         <f t="array" ref="G204">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11308,9 +11413,8 @@
       <c r="E205" t="s">
         <v>15</v>
       </c>
-      <c r="F205" t="str" cm="1">
-        <f t="array" ref="F205">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-23 00:00:00</v>
+      <c r="F205" s="1">
+        <v>45496</v>
       </c>
       <c r="G205" t="str" cm="1">
         <f t="array" ref="G205">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11341,9 +11445,8 @@
       <c r="E206" t="s">
         <v>9</v>
       </c>
-      <c r="F206" t="str" cm="1">
-        <f t="array" ref="F206">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-24 00:00:00</v>
+      <c r="F206" s="1">
+        <v>45497</v>
       </c>
       <c r="G206" t="str" cm="1">
         <f t="array" ref="G206">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11374,9 +11477,8 @@
       <c r="E207" t="s">
         <v>12</v>
       </c>
-      <c r="F207" t="str" cm="1">
-        <f t="array" ref="F207">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-25 00:00:00</v>
+      <c r="F207" s="1">
+        <v>45498</v>
       </c>
       <c r="G207" t="str" cm="1">
         <f t="array" ref="G207">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11407,9 +11509,8 @@
       <c r="E208" t="s">
         <v>15</v>
       </c>
-      <c r="F208" t="str" cm="1">
-        <f t="array" ref="F208">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-26 00:00:00</v>
+      <c r="F208" s="1">
+        <v>45499</v>
       </c>
       <c r="G208" t="str" cm="1">
         <f t="array" ref="G208">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11440,9 +11541,8 @@
       <c r="E209" t="s">
         <v>9</v>
       </c>
-      <c r="F209" t="str" cm="1">
-        <f t="array" ref="F209">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-27 00:00:00</v>
+      <c r="F209" s="1">
+        <v>45500</v>
       </c>
       <c r="G209" t="str" cm="1">
         <f t="array" ref="G209">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11473,9 +11573,8 @@
       <c r="E210" t="s">
         <v>12</v>
       </c>
-      <c r="F210" t="str" cm="1">
-        <f t="array" ref="F210">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-28 00:00:00</v>
+      <c r="F210" s="1">
+        <v>45501</v>
       </c>
       <c r="G210" t="str" cm="1">
         <f t="array" ref="G210">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11506,9 +11605,8 @@
       <c r="E211" t="s">
         <v>15</v>
       </c>
-      <c r="F211" t="str" cm="1">
-        <f t="array" ref="F211">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-29 00:00:00</v>
+      <c r="F211" s="1">
+        <v>45502</v>
       </c>
       <c r="G211" t="str" cm="1">
         <f t="array" ref="G211">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11539,9 +11637,8 @@
       <c r="E212" t="s">
         <v>9</v>
       </c>
-      <c r="F212" t="str" cm="1">
-        <f t="array" ref="F212">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-30 00:00:00</v>
+      <c r="F212" s="1">
+        <v>45503</v>
       </c>
       <c r="G212" t="str" cm="1">
         <f t="array" ref="G212">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11572,9 +11669,8 @@
       <c r="E213" t="s">
         <v>12</v>
       </c>
-      <c r="F213" t="str" cm="1">
-        <f t="array" ref="F213">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-31 00:00:00</v>
+      <c r="F213" s="1">
+        <v>45504</v>
       </c>
       <c r="G213" t="str" cm="1">
         <f t="array" ref="G213">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11605,9 +11701,8 @@
       <c r="E214" t="s">
         <v>15</v>
       </c>
-      <c r="F214" t="str" cm="1">
-        <f t="array" ref="F214">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-01 00:00:00</v>
+      <c r="F214" s="1">
+        <v>45505</v>
       </c>
       <c r="G214" t="str" cm="1">
         <f t="array" ref="G214">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11638,9 +11733,8 @@
       <c r="E215" t="s">
         <v>9</v>
       </c>
-      <c r="F215" t="str" cm="1">
-        <f t="array" ref="F215">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-02 00:00:00</v>
+      <c r="F215" s="1">
+        <v>45506</v>
       </c>
       <c r="G215" t="str" cm="1">
         <f t="array" ref="G215">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11671,9 +11765,8 @@
       <c r="E216" t="s">
         <v>12</v>
       </c>
-      <c r="F216" t="str" cm="1">
-        <f t="array" ref="F216">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-03 00:00:00</v>
+      <c r="F216" s="1">
+        <v>45507</v>
       </c>
       <c r="G216" t="str" cm="1">
         <f t="array" ref="G216">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11704,9 +11797,8 @@
       <c r="E217" t="s">
         <v>15</v>
       </c>
-      <c r="F217" t="str" cm="1">
-        <f t="array" ref="F217">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-04 00:00:00</v>
+      <c r="F217" s="1">
+        <v>45508</v>
       </c>
       <c r="G217" t="str" cm="1">
         <f t="array" ref="G217">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11737,9 +11829,8 @@
       <c r="E218" t="s">
         <v>9</v>
       </c>
-      <c r="F218" t="str" cm="1">
-        <f t="array" ref="F218">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-05 00:00:00</v>
+      <c r="F218" s="1">
+        <v>45509</v>
       </c>
       <c r="G218" t="str" cm="1">
         <f t="array" ref="G218">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11770,9 +11861,8 @@
       <c r="E219" t="s">
         <v>12</v>
       </c>
-      <c r="F219" t="str" cm="1">
-        <f t="array" ref="F219">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-06 00:00:00</v>
+      <c r="F219" s="1">
+        <v>45510</v>
       </c>
       <c r="G219" t="str" cm="1">
         <f t="array" ref="G219">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11803,9 +11893,8 @@
       <c r="E220" t="s">
         <v>15</v>
       </c>
-      <c r="F220" t="str" cm="1">
-        <f t="array" ref="F220">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-07 00:00:00</v>
+      <c r="F220" s="1">
+        <v>45511</v>
       </c>
       <c r="G220" t="str" cm="1">
         <f t="array" ref="G220">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11836,9 +11925,8 @@
       <c r="E221" t="s">
         <v>9</v>
       </c>
-      <c r="F221" t="str" cm="1">
-        <f t="array" ref="F221">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-08 00:00:00</v>
+      <c r="F221" s="1">
+        <v>45512</v>
       </c>
       <c r="G221" t="str" cm="1">
         <f t="array" ref="G221">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11869,9 +11957,8 @@
       <c r="E222" t="s">
         <v>12</v>
       </c>
-      <c r="F222" t="str" cm="1">
-        <f t="array" ref="F222">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-09 00:00:00</v>
+      <c r="F222" s="1">
+        <v>45513</v>
       </c>
       <c r="G222" t="str" cm="1">
         <f t="array" ref="G222">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11902,9 +11989,8 @@
       <c r="E223" t="s">
         <v>15</v>
       </c>
-      <c r="F223" t="str" cm="1">
-        <f t="array" ref="F223">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-10 00:00:00</v>
+      <c r="F223" s="1">
+        <v>45514</v>
       </c>
       <c r="G223" t="str" cm="1">
         <f t="array" ref="G223">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11935,9 +12021,8 @@
       <c r="E224" t="s">
         <v>9</v>
       </c>
-      <c r="F224" t="str" cm="1">
-        <f t="array" ref="F224">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-11 00:00:00</v>
+      <c r="F224" s="1">
+        <v>45515</v>
       </c>
       <c r="G224" t="str" cm="1">
         <f t="array" ref="G224">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11968,9 +12053,8 @@
       <c r="E225" t="s">
         <v>12</v>
       </c>
-      <c r="F225" t="str" cm="1">
-        <f t="array" ref="F225">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-12 00:00:00</v>
+      <c r="F225" s="1">
+        <v>45516</v>
       </c>
       <c r="G225" t="str" cm="1">
         <f t="array" ref="G225">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12001,9 +12085,8 @@
       <c r="E226" t="s">
         <v>15</v>
       </c>
-      <c r="F226" t="str" cm="1">
-        <f t="array" ref="F226">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-13 00:00:00</v>
+      <c r="F226" s="1">
+        <v>45517</v>
       </c>
       <c r="G226" t="str" cm="1">
         <f t="array" ref="G226">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12034,9 +12117,8 @@
       <c r="E227" t="s">
         <v>9</v>
       </c>
-      <c r="F227" t="str" cm="1">
-        <f t="array" ref="F227">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-14 00:00:00</v>
+      <c r="F227" s="1">
+        <v>45518</v>
       </c>
       <c r="G227" t="str" cm="1">
         <f t="array" ref="G227">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12067,9 +12149,8 @@
       <c r="E228" t="s">
         <v>12</v>
       </c>
-      <c r="F228" t="str" cm="1">
-        <f t="array" ref="F228">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-15 00:00:00</v>
+      <c r="F228" s="1">
+        <v>45519</v>
       </c>
       <c r="G228" t="str" cm="1">
         <f t="array" ref="G228">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12100,9 +12181,8 @@
       <c r="E229" t="s">
         <v>15</v>
       </c>
-      <c r="F229" t="str" cm="1">
-        <f t="array" ref="F229">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-16 00:00:00</v>
+      <c r="F229" s="1">
+        <v>45520</v>
       </c>
       <c r="G229" t="str" cm="1">
         <f t="array" ref="G229">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12133,9 +12213,8 @@
       <c r="E230" t="s">
         <v>9</v>
       </c>
-      <c r="F230" t="str" cm="1">
-        <f t="array" ref="F230">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-17 00:00:00</v>
+      <c r="F230" s="1">
+        <v>45521</v>
       </c>
       <c r="G230" t="str" cm="1">
         <f t="array" ref="G230">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12166,9 +12245,8 @@
       <c r="E231" t="s">
         <v>12</v>
       </c>
-      <c r="F231" t="str" cm="1">
-        <f t="array" ref="F231">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-18 00:00:00</v>
+      <c r="F231" s="1">
+        <v>45522</v>
       </c>
       <c r="G231" t="str" cm="1">
         <f t="array" ref="G231">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12199,9 +12277,8 @@
       <c r="E232" t="s">
         <v>15</v>
       </c>
-      <c r="F232" t="str" cm="1">
-        <f t="array" ref="F232">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-19 00:00:00</v>
+      <c r="F232" s="1">
+        <v>45523</v>
       </c>
       <c r="G232" t="str" cm="1">
         <f t="array" ref="G232">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12232,9 +12309,8 @@
       <c r="E233" t="s">
         <v>9</v>
       </c>
-      <c r="F233" t="str" cm="1">
-        <f t="array" ref="F233">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-20 00:00:00</v>
+      <c r="F233" s="1">
+        <v>45524</v>
       </c>
       <c r="G233" t="str" cm="1">
         <f t="array" ref="G233">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12265,9 +12341,8 @@
       <c r="E234" t="s">
         <v>12</v>
       </c>
-      <c r="F234" t="str" cm="1">
-        <f t="array" ref="F234">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-21 00:00:00</v>
+      <c r="F234" s="1">
+        <v>45525</v>
       </c>
       <c r="G234" t="str" cm="1">
         <f t="array" ref="G234">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12298,9 +12373,8 @@
       <c r="E235" t="s">
         <v>15</v>
       </c>
-      <c r="F235" t="str" cm="1">
-        <f t="array" ref="F235">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-22 00:00:00</v>
+      <c r="F235" s="1">
+        <v>45526</v>
       </c>
       <c r="G235" t="str" cm="1">
         <f t="array" ref="G235">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12331,9 +12405,8 @@
       <c r="E236" t="s">
         <v>9</v>
       </c>
-      <c r="F236" t="str" cm="1">
-        <f t="array" ref="F236">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-23 00:00:00</v>
+      <c r="F236" s="1">
+        <v>45527</v>
       </c>
       <c r="G236" t="str" cm="1">
         <f t="array" ref="G236">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12364,9 +12437,8 @@
       <c r="E237" t="s">
         <v>12</v>
       </c>
-      <c r="F237" t="str" cm="1">
-        <f t="array" ref="F237">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-24 00:00:00</v>
+      <c r="F237" s="1">
+        <v>45528</v>
       </c>
       <c r="G237" t="str" cm="1">
         <f t="array" ref="G237">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12397,9 +12469,8 @@
       <c r="E238" t="s">
         <v>15</v>
       </c>
-      <c r="F238" t="str" cm="1">
-        <f t="array" ref="F238">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-25 00:00:00</v>
+      <c r="F238" s="1">
+        <v>45529</v>
       </c>
       <c r="G238" t="str" cm="1">
         <f t="array" ref="G238">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12430,9 +12501,8 @@
       <c r="E239" t="s">
         <v>9</v>
       </c>
-      <c r="F239" t="str" cm="1">
-        <f t="array" ref="F239">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-26 00:00:00</v>
+      <c r="F239" s="1">
+        <v>45530</v>
       </c>
       <c r="G239" t="str" cm="1">
         <f t="array" ref="G239">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12463,9 +12533,8 @@
       <c r="E240" t="s">
         <v>12</v>
       </c>
-      <c r="F240" t="str" cm="1">
-        <f t="array" ref="F240">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-27 00:00:00</v>
+      <c r="F240" s="1">
+        <v>45531</v>
       </c>
       <c r="G240" t="str" cm="1">
         <f t="array" ref="G240">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12496,9 +12565,8 @@
       <c r="E241" t="s">
         <v>15</v>
       </c>
-      <c r="F241" t="str" cm="1">
-        <f t="array" ref="F241">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-28 00:00:00</v>
+      <c r="F241" s="1">
+        <v>45532</v>
       </c>
       <c r="G241" t="str" cm="1">
         <f t="array" ref="G241">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12529,9 +12597,8 @@
       <c r="E242" t="s">
         <v>9</v>
       </c>
-      <c r="F242" t="str" cm="1">
-        <f t="array" ref="F242">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-29 00:00:00</v>
+      <c r="F242" s="1">
+        <v>45533</v>
       </c>
       <c r="G242" t="str" cm="1">
         <f t="array" ref="G242">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12562,9 +12629,8 @@
       <c r="E243" t="s">
         <v>12</v>
       </c>
-      <c r="F243" t="str" cm="1">
-        <f t="array" ref="F243">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-30 00:00:00</v>
+      <c r="F243" s="1">
+        <v>45534</v>
       </c>
       <c r="G243" t="str" cm="1">
         <f t="array" ref="G243">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12595,9 +12661,8 @@
       <c r="E244" t="s">
         <v>15</v>
       </c>
-      <c r="F244" t="str" cm="1">
-        <f t="array" ref="F244">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-31 00:00:00</v>
+      <c r="F244" s="1">
+        <v>45535</v>
       </c>
       <c r="G244" t="str" cm="1">
         <f t="array" ref="G244">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12628,9 +12693,8 @@
       <c r="E245" t="s">
         <v>9</v>
       </c>
-      <c r="F245" t="str" cm="1">
-        <f t="array" ref="F245">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-01 00:00:00</v>
+      <c r="F245" s="1">
+        <v>45536</v>
       </c>
       <c r="G245" t="str" cm="1">
         <f t="array" ref="G245">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12661,9 +12725,8 @@
       <c r="E246" t="s">
         <v>12</v>
       </c>
-      <c r="F246" t="str" cm="1">
-        <f t="array" ref="F246">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-02 00:00:00</v>
+      <c r="F246" s="1">
+        <v>45537</v>
       </c>
       <c r="G246" t="str" cm="1">
         <f t="array" ref="G246">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12694,9 +12757,8 @@
       <c r="E247" t="s">
         <v>15</v>
       </c>
-      <c r="F247" t="str" cm="1">
-        <f t="array" ref="F247">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-03 00:00:00</v>
+      <c r="F247" s="1">
+        <v>45538</v>
       </c>
       <c r="G247" t="str" cm="1">
         <f t="array" ref="G247">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12727,9 +12789,8 @@
       <c r="E248" t="s">
         <v>9</v>
       </c>
-      <c r="F248" t="str" cm="1">
-        <f t="array" ref="F248">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-04 00:00:00</v>
+      <c r="F248" s="1">
+        <v>45539</v>
       </c>
       <c r="G248" t="str" cm="1">
         <f t="array" ref="G248">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12760,9 +12821,8 @@
       <c r="E249" t="s">
         <v>12</v>
       </c>
-      <c r="F249" t="str" cm="1">
-        <f t="array" ref="F249">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-05 00:00:00</v>
+      <c r="F249" s="1">
+        <v>45540</v>
       </c>
       <c r="G249" t="str" cm="1">
         <f t="array" ref="G249">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12793,9 +12853,8 @@
       <c r="E250" t="s">
         <v>15</v>
       </c>
-      <c r="F250" t="str" cm="1">
-        <f t="array" ref="F250">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-06 00:00:00</v>
+      <c r="F250" s="1">
+        <v>45541</v>
       </c>
       <c r="G250" t="str" cm="1">
         <f t="array" ref="G250">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12826,9 +12885,8 @@
       <c r="E251" t="s">
         <v>9</v>
       </c>
-      <c r="F251" t="str" cm="1">
-        <f t="array" ref="F251">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-07 00:00:00</v>
+      <c r="F251" s="1">
+        <v>45542</v>
       </c>
       <c r="G251" t="str" cm="1">
         <f t="array" ref="G251">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12859,9 +12917,8 @@
       <c r="E252" t="s">
         <v>12</v>
       </c>
-      <c r="F252" t="str" cm="1">
-        <f t="array" ref="F252">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-08 00:00:00</v>
+      <c r="F252" s="1">
+        <v>45543</v>
       </c>
       <c r="G252" t="str" cm="1">
         <f t="array" ref="G252">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12892,9 +12949,8 @@
       <c r="E253" t="s">
         <v>15</v>
       </c>
-      <c r="F253" t="str" cm="1">
-        <f t="array" ref="F253">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-09 00:00:00</v>
+      <c r="F253" s="1">
+        <v>45544</v>
       </c>
       <c r="G253" t="str" cm="1">
         <f t="array" ref="G253">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12925,9 +12981,8 @@
       <c r="E254" t="s">
         <v>9</v>
       </c>
-      <c r="F254" t="str" cm="1">
-        <f t="array" ref="F254">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-10 00:00:00</v>
+      <c r="F254" s="1">
+        <v>45545</v>
       </c>
       <c r="G254" t="str" cm="1">
         <f t="array" ref="G254">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12958,9 +13013,8 @@
       <c r="E255" t="s">
         <v>12</v>
       </c>
-      <c r="F255" t="str" cm="1">
-        <f t="array" ref="F255">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-11 00:00:00</v>
+      <c r="F255" s="1">
+        <v>45546</v>
       </c>
       <c r="G255" t="str" cm="1">
         <f t="array" ref="G255">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12991,9 +13045,8 @@
       <c r="E256" t="s">
         <v>15</v>
       </c>
-      <c r="F256" t="str" cm="1">
-        <f t="array" ref="F256">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-12 00:00:00</v>
+      <c r="F256" s="1">
+        <v>45547</v>
       </c>
       <c r="G256" t="str" cm="1">
         <f t="array" ref="G256">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13024,9 +13077,8 @@
       <c r="E257" t="s">
         <v>9</v>
       </c>
-      <c r="F257" t="str" cm="1">
-        <f t="array" ref="F257">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-13 00:00:00</v>
+      <c r="F257" s="1">
+        <v>45548</v>
       </c>
       <c r="G257" t="str" cm="1">
         <f t="array" ref="G257">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13057,9 +13109,8 @@
       <c r="E258" t="s">
         <v>12</v>
       </c>
-      <c r="F258" t="str" cm="1">
-        <f t="array" ref="F258">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-14 00:00:00</v>
+      <c r="F258" s="1">
+        <v>45549</v>
       </c>
       <c r="G258" t="str" cm="1">
         <f t="array" ref="G258">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13090,9 +13141,8 @@
       <c r="E259" t="s">
         <v>15</v>
       </c>
-      <c r="F259" t="str" cm="1">
-        <f t="array" ref="F259">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-15 00:00:00</v>
+      <c r="F259" s="1">
+        <v>45550</v>
       </c>
       <c r="G259" t="str" cm="1">
         <f t="array" ref="G259">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13123,9 +13173,8 @@
       <c r="E260" t="s">
         <v>9</v>
       </c>
-      <c r="F260" t="str" cm="1">
-        <f t="array" ref="F260">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-16 00:00:00</v>
+      <c r="F260" s="1">
+        <v>45551</v>
       </c>
       <c r="G260" t="str" cm="1">
         <f t="array" ref="G260">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13156,9 +13205,8 @@
       <c r="E261" t="s">
         <v>12</v>
       </c>
-      <c r="F261" t="str" cm="1">
-        <f t="array" ref="F261">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-17 00:00:00</v>
+      <c r="F261" s="1">
+        <v>45552</v>
       </c>
       <c r="G261" t="str" cm="1">
         <f t="array" ref="G261">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13189,9 +13237,8 @@
       <c r="E262" t="s">
         <v>15</v>
       </c>
-      <c r="F262" t="str" cm="1">
-        <f t="array" ref="F262">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-18 00:00:00</v>
+      <c r="F262" s="1">
+        <v>45553</v>
       </c>
       <c r="G262" t="str" cm="1">
         <f t="array" ref="G262">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13222,9 +13269,8 @@
       <c r="E263" t="s">
         <v>9</v>
       </c>
-      <c r="F263" t="str" cm="1">
-        <f t="array" ref="F263">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-19 00:00:00</v>
+      <c r="F263" s="1">
+        <v>45554</v>
       </c>
       <c r="G263" t="str" cm="1">
         <f t="array" ref="G263">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13255,9 +13301,8 @@
       <c r="E264" t="s">
         <v>12</v>
       </c>
-      <c r="F264" t="str" cm="1">
-        <f t="array" ref="F264">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-20 00:00:00</v>
+      <c r="F264" s="1">
+        <v>45555</v>
       </c>
       <c r="G264" t="str" cm="1">
         <f t="array" ref="G264">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13288,9 +13333,8 @@
       <c r="E265" t="s">
         <v>15</v>
       </c>
-      <c r="F265" t="str" cm="1">
-        <f t="array" ref="F265">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-21 00:00:00</v>
+      <c r="F265" s="1">
+        <v>45556</v>
       </c>
       <c r="G265" t="str" cm="1">
         <f t="array" ref="G265">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13321,9 +13365,8 @@
       <c r="E266" t="s">
         <v>9</v>
       </c>
-      <c r="F266" t="str" cm="1">
-        <f t="array" ref="F266">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-22 00:00:00</v>
+      <c r="F266" s="1">
+        <v>45557</v>
       </c>
       <c r="G266" t="str" cm="1">
         <f t="array" ref="G266">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13354,9 +13397,8 @@
       <c r="E267" t="s">
         <v>12</v>
       </c>
-      <c r="F267" t="str" cm="1">
-        <f t="array" ref="F267">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-23 00:00:00</v>
+      <c r="F267" s="1">
+        <v>45558</v>
       </c>
       <c r="G267" t="str" cm="1">
         <f t="array" ref="G267">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13387,9 +13429,8 @@
       <c r="E268" t="s">
         <v>15</v>
       </c>
-      <c r="F268" t="str" cm="1">
-        <f t="array" ref="F268">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-24 00:00:00</v>
+      <c r="F268" s="1">
+        <v>45559</v>
       </c>
       <c r="G268" t="str" cm="1">
         <f t="array" ref="G268">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13420,9 +13461,8 @@
       <c r="E269" t="s">
         <v>9</v>
       </c>
-      <c r="F269" t="str" cm="1">
-        <f t="array" ref="F269">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-25 00:00:00</v>
+      <c r="F269" s="1">
+        <v>45560</v>
       </c>
       <c r="G269" t="str" cm="1">
         <f t="array" ref="G269">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13453,9 +13493,8 @@
       <c r="E270" t="s">
         <v>12</v>
       </c>
-      <c r="F270" t="str" cm="1">
-        <f t="array" ref="F270">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-26 00:00:00</v>
+      <c r="F270" s="1">
+        <v>45561</v>
       </c>
       <c r="G270" t="str" cm="1">
         <f t="array" ref="G270">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13486,9 +13525,8 @@
       <c r="E271" t="s">
         <v>15</v>
       </c>
-      <c r="F271" t="str" cm="1">
-        <f t="array" ref="F271">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-27 00:00:00</v>
+      <c r="F271" s="1">
+        <v>45562</v>
       </c>
       <c r="G271" t="str" cm="1">
         <f t="array" ref="G271">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13519,9 +13557,8 @@
       <c r="E272" t="s">
         <v>9</v>
       </c>
-      <c r="F272" t="str" cm="1">
-        <f t="array" ref="F272">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-28 00:00:00</v>
+      <c r="F272" s="1">
+        <v>45563</v>
       </c>
       <c r="G272" t="str" cm="1">
         <f t="array" ref="G272">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13552,9 +13589,8 @@
       <c r="E273" t="s">
         <v>12</v>
       </c>
-      <c r="F273" t="str" cm="1">
-        <f t="array" ref="F273">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-29 00:00:00</v>
+      <c r="F273" s="1">
+        <v>45564</v>
       </c>
       <c r="G273" t="str" cm="1">
         <f t="array" ref="G273">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13585,9 +13621,8 @@
       <c r="E274" t="s">
         <v>15</v>
       </c>
-      <c r="F274" t="str" cm="1">
-        <f t="array" ref="F274">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-30 00:00:00</v>
+      <c r="F274" s="1">
+        <v>45565</v>
       </c>
       <c r="G274" t="str" cm="1">
         <f t="array" ref="G274">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13618,9 +13653,8 @@
       <c r="E275" t="s">
         <v>9</v>
       </c>
-      <c r="F275" t="str" cm="1">
-        <f t="array" ref="F275">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-01 00:00:00</v>
+      <c r="F275" s="1">
+        <v>45566</v>
       </c>
       <c r="G275" t="str" cm="1">
         <f t="array" ref="G275">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13651,9 +13685,8 @@
       <c r="E276" t="s">
         <v>12</v>
       </c>
-      <c r="F276" t="str" cm="1">
-        <f t="array" ref="F276">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-02 00:00:00</v>
+      <c r="F276" s="1">
+        <v>45567</v>
       </c>
       <c r="G276" t="str" cm="1">
         <f t="array" ref="G276">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13684,9 +13717,8 @@
       <c r="E277" t="s">
         <v>15</v>
       </c>
-      <c r="F277" t="str" cm="1">
-        <f t="array" ref="F277">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-03 00:00:00</v>
+      <c r="F277" s="1">
+        <v>45568</v>
       </c>
       <c r="G277" t="str" cm="1">
         <f t="array" ref="G277">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13717,9 +13749,8 @@
       <c r="E278" t="s">
         <v>9</v>
       </c>
-      <c r="F278" t="str" cm="1">
-        <f t="array" ref="F278">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-04 00:00:00</v>
+      <c r="F278" s="1">
+        <v>45569</v>
       </c>
       <c r="G278" t="str" cm="1">
         <f t="array" ref="G278">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13750,9 +13781,8 @@
       <c r="E279" t="s">
         <v>12</v>
       </c>
-      <c r="F279" t="str" cm="1">
-        <f t="array" ref="F279">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-05 00:00:00</v>
+      <c r="F279" s="1">
+        <v>45570</v>
       </c>
       <c r="G279" t="str" cm="1">
         <f t="array" ref="G279">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13783,9 +13813,8 @@
       <c r="E280" t="s">
         <v>15</v>
       </c>
-      <c r="F280" t="str" cm="1">
-        <f t="array" ref="F280">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-06 00:00:00</v>
+      <c r="F280" s="1">
+        <v>45571</v>
       </c>
       <c r="G280" t="str" cm="1">
         <f t="array" ref="G280">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13816,9 +13845,8 @@
       <c r="E281" t="s">
         <v>9</v>
       </c>
-      <c r="F281" t="str" cm="1">
-        <f t="array" ref="F281">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-07 00:00:00</v>
+      <c r="F281" s="1">
+        <v>45572</v>
       </c>
       <c r="G281" t="str" cm="1">
         <f t="array" ref="G281">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13849,13 +13877,11 @@
       <c r="E282" t="s">
         <v>12</v>
       </c>
-      <c r="F282" t="str" cm="1">
-        <f t="array" ref="F282">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-08 00:00:00</v>
-      </c>
-      <c r="G282" t="str" cm="1">
-        <f t="array" ref="G282">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.094854791</v>
+      <c r="F282" s="1">
+        <v>45573</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>1456</v>
       </c>
       <c r="H282" t="str" cm="1">
         <f t="array" ref="H282">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -13882,13 +13908,11 @@
       <c r="E283" t="s">
         <v>15</v>
       </c>
-      <c r="F283" t="str" cm="1">
-        <f t="array" ref="F283">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-09 00:00:00</v>
-      </c>
-      <c r="G283" t="str" cm="1">
-        <f t="array" ref="G283">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.046213125</v>
+      <c r="F283" s="1">
+        <v>45574</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>1457</v>
       </c>
       <c r="H283" t="str" cm="1">
         <f t="array" ref="H283">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -13915,13 +13939,11 @@
       <c r="E284" t="s">
         <v>9</v>
       </c>
-      <c r="F284" t="str" cm="1">
-        <f t="array" ref="F284">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-10 00:00:00</v>
-      </c>
-      <c r="G284" t="str" cm="1">
-        <f t="array" ref="G284">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F284" s="1">
+        <v>45575</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>1458</v>
       </c>
       <c r="H284" t="str" cm="1">
         <f t="array" ref="H284">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -13948,13 +13970,11 @@
       <c r="E285" t="s">
         <v>12</v>
       </c>
-      <c r="F285" t="str" cm="1">
-        <f t="array" ref="F285">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-11 00:00:00</v>
-      </c>
-      <c r="G285" t="str" cm="1">
-        <f t="array" ref="G285">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F285" s="1">
+        <v>45576</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>1374</v>
       </c>
       <c r="H285" t="str" cm="1">
         <f t="array" ref="H285">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -13981,13 +14001,11 @@
       <c r="E286" t="s">
         <v>15</v>
       </c>
-      <c r="F286" t="str" cm="1">
-        <f t="array" ref="F286">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-12 00:00:00</v>
-      </c>
-      <c r="G286" t="str" cm="1">
-        <f t="array" ref="G286">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F286" s="1">
+        <v>45577</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>1375</v>
       </c>
       <c r="H286" t="str" cm="1">
         <f t="array" ref="H286">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -13999,13 +14017,11 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F287" t="str" cm="1">
-        <f t="array" ref="F287">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-13 00:00:00</v>
-      </c>
-      <c r="G287" t="str" cm="1">
-        <f t="array" ref="G287">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F287" s="1">
+        <v>45578</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>1376</v>
       </c>
       <c r="H287" t="str" cm="1">
         <f t="array" ref="H287">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14032,13 +14048,11 @@
       <c r="E288" t="s">
         <v>12</v>
       </c>
-      <c r="F288" t="str" cm="1">
-        <f t="array" ref="F288">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-14 00:00:00</v>
-      </c>
-      <c r="G288" t="str" cm="1">
-        <f t="array" ref="G288">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F288" s="1">
+        <v>45579</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>1377</v>
       </c>
       <c r="H288" t="str" cm="1">
         <f t="array" ref="H288">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14065,13 +14079,11 @@
       <c r="E289" t="s">
         <v>15</v>
       </c>
-      <c r="F289" t="str" cm="1">
-        <f t="array" ref="F289">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-15 00:00:00</v>
-      </c>
-      <c r="G289" t="str" cm="1">
-        <f t="array" ref="G289">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F289" s="1">
+        <v>45580</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>1378</v>
       </c>
       <c r="H289" t="str" cm="1">
         <f t="array" ref="H289">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14083,13 +14095,11 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F290" t="str" cm="1">
-        <f t="array" ref="F290">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-16 00:00:00</v>
-      </c>
-      <c r="G290" t="str" cm="1">
-        <f t="array" ref="G290">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F290" s="1">
+        <v>45581</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>1379</v>
       </c>
       <c r="H290" t="str" cm="1">
         <f t="array" ref="H290">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14116,13 +14126,11 @@
       <c r="E291" t="s">
         <v>12</v>
       </c>
-      <c r="F291" t="str" cm="1">
-        <f t="array" ref="F291">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-17 00:00:00</v>
-      </c>
-      <c r="G291" t="str" cm="1">
-        <f t="array" ref="G291">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F291" s="1">
+        <v>45582</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>1380</v>
       </c>
       <c r="H291" t="str" cm="1">
         <f t="array" ref="H291">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14149,13 +14157,11 @@
       <c r="E292" t="s">
         <v>15</v>
       </c>
-      <c r="F292" t="str" cm="1">
-        <f t="array" ref="F292">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-18 00:00:00</v>
-      </c>
-      <c r="G292" t="str" cm="1">
-        <f t="array" ref="G292">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F292" s="1">
+        <v>45583</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>1381</v>
       </c>
       <c r="H292" t="str" cm="1">
         <f t="array" ref="H292">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14182,13 +14188,11 @@
       <c r="E293" t="s">
         <v>9</v>
       </c>
-      <c r="F293" t="str" cm="1">
-        <f t="array" ref="F293">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-19 00:00:00</v>
-      </c>
-      <c r="G293" t="str" cm="1">
-        <f t="array" ref="G293">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F293" s="1">
+        <v>45584</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>1382</v>
       </c>
       <c r="H293" t="str" cm="1">
         <f t="array" ref="H293">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14215,13 +14219,11 @@
       <c r="E294" t="s">
         <v>12</v>
       </c>
-      <c r="F294" t="str" cm="1">
-        <f t="array" ref="F294">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-20 00:00:00</v>
-      </c>
-      <c r="G294" t="str" cm="1">
-        <f t="array" ref="G294">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F294" s="1">
+        <v>45585</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>1383</v>
       </c>
       <c r="H294" t="str" cm="1">
         <f t="array" ref="H294">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14248,13 +14250,11 @@
       <c r="E295" t="s">
         <v>15</v>
       </c>
-      <c r="F295" t="str" cm="1">
-        <f t="array" ref="F295">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-21 00:00:00</v>
-      </c>
-      <c r="G295" t="str" cm="1">
-        <f t="array" ref="G295">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F295" s="1">
+        <v>45586</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>1384</v>
       </c>
       <c r="H295" t="str" cm="1">
         <f t="array" ref="H295">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14266,13 +14266,11 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F296" t="str" cm="1">
-        <f t="array" ref="F296">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-22 00:00:00</v>
-      </c>
-      <c r="G296" t="str" cm="1">
-        <f t="array" ref="G296">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F296" s="1">
+        <v>45587</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>1385</v>
       </c>
       <c r="H296" t="str" cm="1">
         <f t="array" ref="H296">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14299,13 +14297,11 @@
       <c r="E297" t="s">
         <v>12</v>
       </c>
-      <c r="F297" t="str" cm="1">
-        <f t="array" ref="F297">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-23 00:00:00</v>
-      </c>
-      <c r="G297" t="str" cm="1">
-        <f t="array" ref="G297">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F297" s="1">
+        <v>45588</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>1386</v>
       </c>
       <c r="H297" t="str" cm="1">
         <f t="array" ref="H297">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14332,13 +14328,11 @@
       <c r="E298" t="s">
         <v>15</v>
       </c>
-      <c r="F298" t="str" cm="1">
-        <f t="array" ref="F298">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-24 00:00:00</v>
-      </c>
-      <c r="G298" t="str" cm="1">
-        <f t="array" ref="G298">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F298" s="1">
+        <v>45589</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>1387</v>
       </c>
       <c r="H298" t="str" cm="1">
         <f t="array" ref="H298">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14365,13 +14359,11 @@
       <c r="E299" t="s">
         <v>9</v>
       </c>
-      <c r="F299" t="str" cm="1">
-        <f t="array" ref="F299">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-25 00:00:00</v>
-      </c>
-      <c r="G299" t="str" cm="1">
-        <f t="array" ref="G299">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F299" s="1">
+        <v>45590</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>1388</v>
       </c>
       <c r="H299" t="str" cm="1">
         <f t="array" ref="H299">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14398,13 +14390,11 @@
       <c r="E300" t="s">
         <v>12</v>
       </c>
-      <c r="F300" t="str" cm="1">
-        <f t="array" ref="F300">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-26 00:00:00</v>
-      </c>
-      <c r="G300" t="str" cm="1">
-        <f t="array" ref="G300">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F300" s="1">
+        <v>45591</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>1389</v>
       </c>
       <c r="H300" t="str" cm="1">
         <f t="array" ref="H300">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14431,13 +14421,11 @@
       <c r="E301" t="s">
         <v>15</v>
       </c>
-      <c r="F301" t="str" cm="1">
-        <f t="array" ref="F301">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-27 00:00:00</v>
-      </c>
-      <c r="G301" t="str" cm="1">
-        <f t="array" ref="G301">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F301" s="1">
+        <v>45592</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>1390</v>
       </c>
       <c r="H301" t="str" cm="1">
         <f t="array" ref="H301">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14464,13 +14452,11 @@
       <c r="E302" t="s">
         <v>9</v>
       </c>
-      <c r="F302" t="str" cm="1">
-        <f t="array" ref="F302">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-28 00:00:00</v>
-      </c>
-      <c r="G302" t="str" cm="1">
-        <f t="array" ref="G302">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F302" s="1">
+        <v>45593</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>1391</v>
       </c>
       <c r="H302" t="str" cm="1">
         <f t="array" ref="H302">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14497,13 +14483,11 @@
       <c r="E303" t="s">
         <v>12</v>
       </c>
-      <c r="F303" t="str" cm="1">
-        <f t="array" ref="F303">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-29 00:00:00</v>
-      </c>
-      <c r="G303" t="str" cm="1">
-        <f t="array" ref="G303">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F303" s="1">
+        <v>45594</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>1392</v>
       </c>
       <c r="H303" t="str" cm="1">
         <f t="array" ref="H303">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14530,13 +14514,11 @@
       <c r="E304" t="s">
         <v>15</v>
       </c>
-      <c r="F304" t="str" cm="1">
-        <f t="array" ref="F304">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-30 00:00:00</v>
-      </c>
-      <c r="G304" t="str" cm="1">
-        <f t="array" ref="G304">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F304" s="1">
+        <v>45595</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>1393</v>
       </c>
       <c r="H304" t="str" cm="1">
         <f t="array" ref="H304">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14563,13 +14545,11 @@
       <c r="E305" t="s">
         <v>9</v>
       </c>
-      <c r="F305" t="str" cm="1">
-        <f t="array" ref="F305">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-31 00:00:00</v>
-      </c>
-      <c r="G305" t="str" cm="1">
-        <f t="array" ref="G305">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F305" s="1">
+        <v>45596</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>1394</v>
       </c>
       <c r="H305" t="str" cm="1">
         <f t="array" ref="H305">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14596,13 +14576,11 @@
       <c r="E306" t="s">
         <v>12</v>
       </c>
-      <c r="F306" t="str" cm="1">
-        <f t="array" ref="F306">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-01 00:00:00</v>
-      </c>
-      <c r="G306" t="str" cm="1">
-        <f t="array" ref="G306">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F306" s="1">
+        <v>45597</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>1395</v>
       </c>
       <c r="H306" t="str" cm="1">
         <f t="array" ref="H306">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14629,13 +14607,11 @@
       <c r="E307" t="s">
         <v>15</v>
       </c>
-      <c r="F307" t="str" cm="1">
-        <f t="array" ref="F307">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-02 00:00:00</v>
-      </c>
-      <c r="G307" t="str" cm="1">
-        <f t="array" ref="G307">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F307" s="1">
+        <v>45598</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>1396</v>
       </c>
       <c r="H307" t="str" cm="1">
         <f t="array" ref="H307">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14662,13 +14638,11 @@
       <c r="E308" t="s">
         <v>9</v>
       </c>
-      <c r="F308" t="str" cm="1">
-        <f t="array" ref="F308">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-03 00:00:00</v>
-      </c>
-      <c r="G308" t="str" cm="1">
-        <f t="array" ref="G308">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F308" s="1">
+        <v>45599</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>1397</v>
       </c>
       <c r="H308" t="str" cm="1">
         <f t="array" ref="H308">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14695,13 +14669,11 @@
       <c r="E309" t="s">
         <v>12</v>
       </c>
-      <c r="F309" t="str" cm="1">
-        <f t="array" ref="F309">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-04 00:00:00</v>
-      </c>
-      <c r="G309" t="str" cm="1">
-        <f t="array" ref="G309">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F309" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>1398</v>
       </c>
       <c r="H309" t="str" cm="1">
         <f t="array" ref="H309">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14728,13 +14700,11 @@
       <c r="E310" t="s">
         <v>15</v>
       </c>
-      <c r="F310" t="str" cm="1">
-        <f t="array" ref="F310">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-05 00:00:00</v>
-      </c>
-      <c r="G310" t="str" cm="1">
-        <f t="array" ref="G310">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F310" s="1">
+        <v>45601</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>1399</v>
       </c>
       <c r="H310" t="str" cm="1">
         <f t="array" ref="H310">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14761,13 +14731,11 @@
       <c r="E311" t="s">
         <v>9</v>
       </c>
-      <c r="F311" t="str" cm="1">
-        <f t="array" ref="F311">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-06 00:00:00</v>
-      </c>
-      <c r="G311" t="str" cm="1">
-        <f t="array" ref="G311">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F311" s="1">
+        <v>45602</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>1400</v>
       </c>
       <c r="H311" t="str" cm="1">
         <f t="array" ref="H311">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14794,13 +14762,11 @@
       <c r="E312" t="s">
         <v>12</v>
       </c>
-      <c r="F312" t="str" cm="1">
-        <f t="array" ref="F312">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-07 00:00:00</v>
-      </c>
-      <c r="G312" t="str" cm="1">
-        <f t="array" ref="G312">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F312" s="1">
+        <v>45603</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>1401</v>
       </c>
       <c r="H312" t="str" cm="1">
         <f t="array" ref="H312">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14827,13 +14793,11 @@
       <c r="E313" t="s">
         <v>15</v>
       </c>
-      <c r="F313" t="str" cm="1">
-        <f t="array" ref="F313">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-08 00:00:00</v>
-      </c>
-      <c r="G313" t="str" cm="1">
-        <f t="array" ref="G313">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F313" s="1">
+        <v>45604</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>1402</v>
       </c>
       <c r="H313" t="str" cm="1">
         <f t="array" ref="H313">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14860,13 +14824,11 @@
       <c r="E314" t="s">
         <v>9</v>
       </c>
-      <c r="F314" t="str" cm="1">
-        <f t="array" ref="F314">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-09 00:00:00</v>
-      </c>
-      <c r="G314" t="str" cm="1">
-        <f t="array" ref="G314">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F314" s="1">
+        <v>45605</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>1403</v>
       </c>
       <c r="H314" t="str" cm="1">
         <f t="array" ref="H314">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14893,13 +14855,11 @@
       <c r="E315" t="s">
         <v>12</v>
       </c>
-      <c r="F315" t="str" cm="1">
-        <f t="array" ref="F315">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-10 00:00:00</v>
-      </c>
-      <c r="G315" t="str" cm="1">
-        <f t="array" ref="G315">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F315" s="1">
+        <v>45606</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>1404</v>
       </c>
       <c r="H315" t="str" cm="1">
         <f t="array" ref="H315">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14926,13 +14886,11 @@
       <c r="E316" t="s">
         <v>15</v>
       </c>
-      <c r="F316" t="str" cm="1">
-        <f t="array" ref="F316">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-11 00:00:00</v>
-      </c>
-      <c r="G316" t="str" cm="1">
-        <f t="array" ref="G316">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F316" s="1">
+        <v>45607</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>1405</v>
       </c>
       <c r="H316" t="str" cm="1">
         <f t="array" ref="H316">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14959,13 +14917,11 @@
       <c r="E317" t="s">
         <v>9</v>
       </c>
-      <c r="F317" t="str" cm="1">
-        <f t="array" ref="F317">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-12 00:00:00</v>
-      </c>
-      <c r="G317" t="str" cm="1">
-        <f t="array" ref="G317">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F317" s="1">
+        <v>45608</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>1406</v>
       </c>
       <c r="H317" t="str" cm="1">
         <f t="array" ref="H317">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -14992,13 +14948,11 @@
       <c r="E318" t="s">
         <v>12</v>
       </c>
-      <c r="F318" t="str" cm="1">
-        <f t="array" ref="F318">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-13 00:00:00</v>
-      </c>
-      <c r="G318" t="str" cm="1">
-        <f t="array" ref="G318">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F318" s="1">
+        <v>45609</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>1407</v>
       </c>
       <c r="H318" t="str" cm="1">
         <f t="array" ref="H318">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15025,13 +14979,11 @@
       <c r="E319" t="s">
         <v>15</v>
       </c>
-      <c r="F319" t="str" cm="1">
-        <f t="array" ref="F319">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-14 00:00:00</v>
-      </c>
-      <c r="G319" t="str" cm="1">
-        <f t="array" ref="G319">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F319" s="1">
+        <v>45610</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>1408</v>
       </c>
       <c r="H319" t="str" cm="1">
         <f t="array" ref="H319">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15058,13 +15010,11 @@
       <c r="E320" t="s">
         <v>9</v>
       </c>
-      <c r="F320" t="str" cm="1">
-        <f t="array" ref="F320">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-15 00:00:00</v>
-      </c>
-      <c r="G320" t="str" cm="1">
-        <f t="array" ref="G320">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F320" s="1">
+        <v>45611</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>1409</v>
       </c>
       <c r="H320" t="str" cm="1">
         <f t="array" ref="H320">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15091,13 +15041,11 @@
       <c r="E321" t="s">
         <v>12</v>
       </c>
-      <c r="F321" t="str" cm="1">
-        <f t="array" ref="F321">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-16 00:00:00</v>
-      </c>
-      <c r="G321" t="str" cm="1">
-        <f t="array" ref="G321">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F321" s="1">
+        <v>45612</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>1410</v>
       </c>
       <c r="H321" t="str" cm="1">
         <f t="array" ref="H321">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15124,13 +15072,11 @@
       <c r="E322" t="s">
         <v>15</v>
       </c>
-      <c r="F322" t="str" cm="1">
-        <f t="array" ref="F322">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-17 00:00:00</v>
-      </c>
-      <c r="G322" t="str" cm="1">
-        <f t="array" ref="G322">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F322" s="1">
+        <v>45613</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>1411</v>
       </c>
       <c r="H322" t="str" cm="1">
         <f t="array" ref="H322">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15157,13 +15103,11 @@
       <c r="E323" t="s">
         <v>9</v>
       </c>
-      <c r="F323" t="str" cm="1">
-        <f t="array" ref="F323">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-18 00:00:00</v>
-      </c>
-      <c r="G323" t="str" cm="1">
-        <f t="array" ref="G323">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F323" s="1">
+        <v>45614</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>1412</v>
       </c>
       <c r="H323" t="str" cm="1">
         <f t="array" ref="H323">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15190,13 +15134,11 @@
       <c r="E324" t="s">
         <v>12</v>
       </c>
-      <c r="F324" t="str" cm="1">
-        <f t="array" ref="F324">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-19 00:00:00</v>
-      </c>
-      <c r="G324" t="str" cm="1">
-        <f t="array" ref="G324">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F324" s="1">
+        <v>45615</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>1413</v>
       </c>
       <c r="H324" t="str" cm="1">
         <f t="array" ref="H324">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15223,13 +15165,11 @@
       <c r="E325" t="s">
         <v>15</v>
       </c>
-      <c r="F325" t="str" cm="1">
-        <f t="array" ref="F325">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-20 00:00:00</v>
-      </c>
-      <c r="G325" t="str" cm="1">
-        <f t="array" ref="G325">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F325" s="1">
+        <v>45616</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>1414</v>
       </c>
       <c r="H325" t="str" cm="1">
         <f t="array" ref="H325">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15256,13 +15196,11 @@
       <c r="E326" t="s">
         <v>9</v>
       </c>
-      <c r="F326" t="str" cm="1">
-        <f t="array" ref="F326">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-21 00:00:00</v>
-      </c>
-      <c r="G326" t="str" cm="1">
-        <f t="array" ref="G326">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F326" s="1">
+        <v>45617</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>1415</v>
       </c>
       <c r="H326" t="str" cm="1">
         <f t="array" ref="H326">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15289,13 +15227,11 @@
       <c r="E327" t="s">
         <v>12</v>
       </c>
-      <c r="F327" t="str" cm="1">
-        <f t="array" ref="F327">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-22 00:00:00</v>
-      </c>
-      <c r="G327" t="str" cm="1">
-        <f t="array" ref="G327">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F327" s="1">
+        <v>45618</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>1416</v>
       </c>
       <c r="H327" t="str" cm="1">
         <f t="array" ref="H327">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15322,17 +15258,14 @@
       <c r="E328" t="s">
         <v>15</v>
       </c>
-      <c r="F328" t="str" cm="1">
-        <f t="array" ref="F328">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-23 00:00:00</v>
-      </c>
-      <c r="G328" t="str" cm="1">
-        <f t="array" ref="G328">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H328" cm="1">
-        <f t="array" ref="H328">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F328" s="1">
+        <v>45619</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>1265</v>
       </c>
       <c r="I328" t="str" cm="1">
         <f t="array" ref="I328">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -15355,17 +15288,14 @@
       <c r="E329" t="s">
         <v>9</v>
       </c>
-      <c r="F329" t="str" cm="1">
-        <f t="array" ref="F329">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-24 00:00:00</v>
-      </c>
-      <c r="G329" t="str" cm="1">
-        <f t="array" ref="G329">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H329" cm="1">
-        <f t="array" ref="H329">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F329" s="1">
+        <v>45620</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>1272</v>
       </c>
       <c r="I329" t="str" cm="1">
         <f t="array" ref="I329">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -15388,13 +15318,11 @@
       <c r="E330" t="s">
         <v>12</v>
       </c>
-      <c r="F330" t="str" cm="1">
-        <f t="array" ref="F330">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-25 00:00:00</v>
-      </c>
-      <c r="G330" t="str" cm="1">
-        <f t="array" ref="G330">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F330" s="1">
+        <v>45621</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>1419</v>
       </c>
       <c r="H330" t="str" cm="1">
         <f t="array" ref="H330">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15421,13 +15349,11 @@
       <c r="E331" t="s">
         <v>15</v>
       </c>
-      <c r="F331" t="str" cm="1">
-        <f t="array" ref="F331">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-26 00:00:00</v>
-      </c>
-      <c r="G331" t="str" cm="1">
-        <f t="array" ref="G331">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F331" s="1">
+        <v>45622</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>1420</v>
       </c>
       <c r="H331" t="str" cm="1">
         <f t="array" ref="H331">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15454,13 +15380,11 @@
       <c r="E332" t="s">
         <v>9</v>
       </c>
-      <c r="F332" t="str" cm="1">
-        <f t="array" ref="F332">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-27 00:00:00</v>
-      </c>
-      <c r="G332" t="str" cm="1">
-        <f t="array" ref="G332">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F332" s="1">
+        <v>45623</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>1421</v>
       </c>
       <c r="H332" t="str" cm="1">
         <f t="array" ref="H332">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15487,13 +15411,11 @@
       <c r="E333" t="s">
         <v>12</v>
       </c>
-      <c r="F333" t="str" cm="1">
-        <f t="array" ref="F333">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-28 00:00:00</v>
-      </c>
-      <c r="G333" t="str" cm="1">
-        <f t="array" ref="G333">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F333" s="1">
+        <v>45624</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>1422</v>
       </c>
       <c r="H333" t="str" cm="1">
         <f t="array" ref="H333">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15520,13 +15442,11 @@
       <c r="E334" t="s">
         <v>15</v>
       </c>
-      <c r="F334" t="str" cm="1">
-        <f t="array" ref="F334">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-29 00:00:00</v>
-      </c>
-      <c r="G334" t="str" cm="1">
-        <f t="array" ref="G334">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F334" s="1">
+        <v>45625</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>1423</v>
       </c>
       <c r="H334" t="str" cm="1">
         <f t="array" ref="H334">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15553,13 +15473,11 @@
       <c r="E335" t="s">
         <v>9</v>
       </c>
-      <c r="F335" t="str" cm="1">
-        <f t="array" ref="F335">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-30 00:00:00</v>
-      </c>
-      <c r="G335" t="str" cm="1">
-        <f t="array" ref="G335">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F335" s="1">
+        <v>45626</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>1424</v>
       </c>
       <c r="H335" t="str" cm="1">
         <f t="array" ref="H335">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15586,13 +15504,11 @@
       <c r="E336" t="s">
         <v>12</v>
       </c>
-      <c r="F336" t="str" cm="1">
-        <f t="array" ref="F336">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-01 00:00:00</v>
-      </c>
-      <c r="G336" t="str" cm="1">
-        <f t="array" ref="G336">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F336" s="1">
+        <v>45627</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>1425</v>
       </c>
       <c r="H336" t="str" cm="1">
         <f t="array" ref="H336">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15619,13 +15535,11 @@
       <c r="E337" t="s">
         <v>15</v>
       </c>
-      <c r="F337" t="str" cm="1">
-        <f t="array" ref="F337">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-02 00:00:00</v>
-      </c>
-      <c r="G337" t="str" cm="1">
-        <f t="array" ref="G337">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F337" s="1">
+        <v>45628</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="H337" t="str" cm="1">
         <f t="array" ref="H337">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15652,13 +15566,11 @@
       <c r="E338" t="s">
         <v>9</v>
       </c>
-      <c r="F338" t="str" cm="1">
-        <f t="array" ref="F338">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-03 00:00:00</v>
-      </c>
-      <c r="G338" t="str" cm="1">
-        <f t="array" ref="G338">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F338" s="1">
+        <v>45629</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>1427</v>
       </c>
       <c r="H338" t="str" cm="1">
         <f t="array" ref="H338">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15685,13 +15597,11 @@
       <c r="E339" t="s">
         <v>12</v>
       </c>
-      <c r="F339" t="str" cm="1">
-        <f t="array" ref="F339">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-04 00:00:00</v>
-      </c>
-      <c r="G339" t="str" cm="1">
-        <f t="array" ref="G339">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F339" s="1">
+        <v>45630</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>1428</v>
       </c>
       <c r="H339" t="str" cm="1">
         <f t="array" ref="H339">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15718,13 +15628,11 @@
       <c r="E340" t="s">
         <v>15</v>
       </c>
-      <c r="F340" t="str" cm="1">
-        <f t="array" ref="F340">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-05 00:00:00</v>
-      </c>
-      <c r="G340" t="str" cm="1">
-        <f t="array" ref="G340">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F340" s="1">
+        <v>45631</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>1429</v>
       </c>
       <c r="H340" t="str" cm="1">
         <f t="array" ref="H340">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15751,13 +15659,11 @@
       <c r="E341" t="s">
         <v>9</v>
       </c>
-      <c r="F341" t="str" cm="1">
-        <f t="array" ref="F341">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-06 00:00:00</v>
-      </c>
-      <c r="G341" t="str" cm="1">
-        <f t="array" ref="G341">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F341" s="1">
+        <v>45632</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>1430</v>
       </c>
       <c r="H341" t="str" cm="1">
         <f t="array" ref="H341">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15784,13 +15690,11 @@
       <c r="E342" t="s">
         <v>12</v>
       </c>
-      <c r="F342" t="str" cm="1">
-        <f t="array" ref="F342">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-07 00:00:00</v>
-      </c>
-      <c r="G342" t="str" cm="1">
-        <f t="array" ref="G342">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F342" s="1">
+        <v>45633</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>1431</v>
       </c>
       <c r="H342" t="str" cm="1">
         <f t="array" ref="H342">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15817,13 +15721,11 @@
       <c r="E343" t="s">
         <v>15</v>
       </c>
-      <c r="F343" t="str" cm="1">
-        <f t="array" ref="F343">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-08 00:00:00</v>
-      </c>
-      <c r="G343" t="str" cm="1">
-        <f t="array" ref="G343">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F343" s="1">
+        <v>45634</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>1432</v>
       </c>
       <c r="H343" t="str" cm="1">
         <f t="array" ref="H343">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15850,13 +15752,11 @@
       <c r="E344" t="s">
         <v>9</v>
       </c>
-      <c r="F344" t="str" cm="1">
-        <f t="array" ref="F344">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-09 00:00:00</v>
-      </c>
-      <c r="G344" t="str" cm="1">
-        <f t="array" ref="G344">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F344" s="1">
+        <v>45635</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>1433</v>
       </c>
       <c r="H344" t="str" cm="1">
         <f t="array" ref="H344">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15883,13 +15783,11 @@
       <c r="E345" t="s">
         <v>12</v>
       </c>
-      <c r="F345" t="str" cm="1">
-        <f t="array" ref="F345">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-10 00:00:00</v>
-      </c>
-      <c r="G345" t="str" cm="1">
-        <f t="array" ref="G345">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F345" s="1">
+        <v>45636</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>1434</v>
       </c>
       <c r="H345" t="str" cm="1">
         <f t="array" ref="H345">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15916,13 +15814,11 @@
       <c r="E346" t="s">
         <v>15</v>
       </c>
-      <c r="F346" t="str" cm="1">
-        <f t="array" ref="F346">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-11 00:00:00</v>
-      </c>
-      <c r="G346" t="str" cm="1">
-        <f t="array" ref="G346">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F346" s="1">
+        <v>45637</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>1435</v>
       </c>
       <c r="H346" t="str" cm="1">
         <f t="array" ref="H346">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15949,13 +15845,11 @@
       <c r="E347" t="s">
         <v>9</v>
       </c>
-      <c r="F347" t="str" cm="1">
-        <f t="array" ref="F347">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-12 00:00:00</v>
-      </c>
-      <c r="G347" t="str" cm="1">
-        <f t="array" ref="G347">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F347" s="1">
+        <v>45638</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>1436</v>
       </c>
       <c r="H347" t="str" cm="1">
         <f t="array" ref="H347">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -15982,13 +15876,11 @@
       <c r="E348" t="s">
         <v>12</v>
       </c>
-      <c r="F348" t="str" cm="1">
-        <f t="array" ref="F348">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-13 00:00:00</v>
-      </c>
-      <c r="G348" t="str" cm="1">
-        <f t="array" ref="G348">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F348" s="1">
+        <v>45639</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>1437</v>
       </c>
       <c r="H348" t="str" cm="1">
         <f t="array" ref="H348">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -16015,13 +15907,11 @@
       <c r="E349" t="s">
         <v>15</v>
       </c>
-      <c r="F349" t="str" cm="1">
-        <f t="array" ref="F349">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-14 00:00:00</v>
-      </c>
-      <c r="G349" t="str" cm="1">
-        <f t="array" ref="G349">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F349" s="1">
+        <v>45640</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>1438</v>
       </c>
       <c r="H349" t="str" cm="1">
         <f t="array" ref="H349">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -16048,13 +15938,11 @@
       <c r="E350" t="s">
         <v>9</v>
       </c>
-      <c r="F350" t="str" cm="1">
-        <f t="array" ref="F350">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-15 00:00:00</v>
-      </c>
-      <c r="G350" t="str" cm="1">
-        <f t="array" ref="G350">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F350" s="1">
+        <v>45641</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>1439</v>
       </c>
       <c r="H350" t="str" cm="1">
         <f t="array" ref="H350">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -16081,13 +15969,11 @@
       <c r="E351" t="s">
         <v>12</v>
       </c>
-      <c r="F351" t="str" cm="1">
-        <f t="array" ref="F351">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-16 00:00:00</v>
-      </c>
-      <c r="G351" t="str" cm="1">
-        <f t="array" ref="G351">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F351" s="1">
+        <v>45642</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>1440</v>
       </c>
       <c r="H351" t="str" cm="1">
         <f t="array" ref="H351">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -16114,13 +16000,11 @@
       <c r="E352" t="s">
         <v>15</v>
       </c>
-      <c r="F352" t="str" cm="1">
-        <f t="array" ref="F352">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-17 00:00:00</v>
-      </c>
-      <c r="G352" t="str" cm="1">
-        <f t="array" ref="G352">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
+      <c r="F352" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>1441</v>
       </c>
       <c r="H352" t="str" cm="1">
         <f t="array" ref="H352">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -16147,17 +16031,14 @@
       <c r="E353" t="s">
         <v>9</v>
       </c>
-      <c r="F353" t="str" cm="1">
-        <f t="array" ref="F353">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-18 00:00:00</v>
-      </c>
-      <c r="G353" t="str" cm="1">
-        <f t="array" ref="G353">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H353" cm="1">
-        <f t="array" ref="H353">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F353" s="1">
+        <v>45644</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>1459</v>
       </c>
       <c r="I353" t="str" cm="1">
         <f t="array" ref="I353">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16180,17 +16061,14 @@
       <c r="E354" t="s">
         <v>12</v>
       </c>
-      <c r="F354" t="str" cm="1">
-        <f t="array" ref="F354">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-19 00:00:00</v>
-      </c>
-      <c r="G354" t="str" cm="1">
-        <f t="array" ref="G354">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H354" cm="1">
-        <f t="array" ref="H354">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F354" s="1">
+        <v>45645</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>1460</v>
       </c>
       <c r="I354" t="str" cm="1">
         <f t="array" ref="I354">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16213,17 +16091,14 @@
       <c r="E355" t="s">
         <v>15</v>
       </c>
-      <c r="F355" t="str" cm="1">
-        <f t="array" ref="F355">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-20 00:00:00</v>
-      </c>
-      <c r="G355" t="str" cm="1">
-        <f t="array" ref="G355">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H355" cm="1">
-        <f t="array" ref="H355">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F355" s="1">
+        <v>45646</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>1461</v>
       </c>
       <c r="I355" t="str" cm="1">
         <f t="array" ref="I355">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16246,17 +16121,14 @@
       <c r="E356" t="s">
         <v>9</v>
       </c>
-      <c r="F356" t="str" cm="1">
-        <f t="array" ref="F356">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-21 00:00:00</v>
-      </c>
-      <c r="G356" t="str" cm="1">
-        <f t="array" ref="G356">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H356" cm="1">
-        <f t="array" ref="H356">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F356" s="1">
+        <v>45647</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>1462</v>
       </c>
       <c r="I356" t="str" cm="1">
         <f t="array" ref="I356">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16279,17 +16151,14 @@
       <c r="E357" t="s">
         <v>12</v>
       </c>
-      <c r="F357" t="str" cm="1">
-        <f t="array" ref="F357">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-22 00:00:00</v>
-      </c>
-      <c r="G357" t="str" cm="1">
-        <f t="array" ref="G357">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H357" cm="1">
-        <f t="array" ref="H357">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F357" s="1">
+        <v>45648</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>1463</v>
       </c>
       <c r="I357" t="str" cm="1">
         <f t="array" ref="I357">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16312,17 +16181,14 @@
       <c r="E358" t="s">
         <v>15</v>
       </c>
-      <c r="F358" t="str" cm="1">
-        <f t="array" ref="F358">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-23 00:00:00</v>
-      </c>
-      <c r="G358" t="str" cm="1">
-        <f t="array" ref="G358">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H358" cm="1">
-        <f t="array" ref="H358">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F358" s="1">
+        <v>45649</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>1464</v>
       </c>
       <c r="I358" t="str" cm="1">
         <f t="array" ref="I358">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16345,17 +16211,14 @@
       <c r="E359" t="s">
         <v>9</v>
       </c>
-      <c r="F359" t="str" cm="1">
-        <f t="array" ref="F359">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-24 00:00:00</v>
-      </c>
-      <c r="G359" t="str" cm="1">
-        <f t="array" ref="G359">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H359" cm="1">
-        <f t="array" ref="H359">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F359" s="1">
+        <v>45650</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>1465</v>
       </c>
       <c r="I359" t="str" cm="1">
         <f t="array" ref="I359">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16378,17 +16241,14 @@
       <c r="E360" t="s">
         <v>12</v>
       </c>
-      <c r="F360" t="str" cm="1">
-        <f t="array" ref="F360">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-25 00:00:00</v>
-      </c>
-      <c r="G360" t="str" cm="1">
-        <f t="array" ref="G360">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H360" cm="1">
-        <f t="array" ref="H360">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F360" s="1">
+        <v>45651</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>1466</v>
       </c>
       <c r="I360" t="str" cm="1">
         <f t="array" ref="I360">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16411,17 +16271,14 @@
       <c r="E361" t="s">
         <v>15</v>
       </c>
-      <c r="F361" t="str" cm="1">
-        <f t="array" ref="F361">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-26 00:00:00</v>
-      </c>
-      <c r="G361" t="str" cm="1">
-        <f t="array" ref="G361">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H361" cm="1">
-        <f t="array" ref="H361">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F361" s="1">
+        <v>45652</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>1467</v>
       </c>
       <c r="I361" t="str" cm="1">
         <f t="array" ref="I361">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16444,17 +16301,14 @@
       <c r="E362" t="s">
         <v>9</v>
       </c>
-      <c r="F362" t="str" cm="1">
-        <f t="array" ref="F362">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-27 00:00:00</v>
-      </c>
-      <c r="G362" t="str" cm="1">
-        <f t="array" ref="G362">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H362" cm="1">
-        <f t="array" ref="H362">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F362" s="1">
+        <v>45653</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>1468</v>
       </c>
       <c r="I362" t="str" cm="1">
         <f t="array" ref="I362">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16477,17 +16331,14 @@
       <c r="E363" t="s">
         <v>12</v>
       </c>
-      <c r="F363" t="str" cm="1">
-        <f t="array" ref="F363">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-28 00:00:00</v>
-      </c>
-      <c r="G363" t="str" cm="1">
-        <f t="array" ref="G363">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H363" cm="1">
-        <f t="array" ref="H363">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F363" s="1">
+        <v>45654</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>1469</v>
       </c>
       <c r="I363" t="str" cm="1">
         <f t="array" ref="I363">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16510,17 +16361,14 @@
       <c r="E364" t="s">
         <v>15</v>
       </c>
-      <c r="F364" t="str" cm="1">
-        <f t="array" ref="F364">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-29 00:00:00</v>
-      </c>
-      <c r="G364" t="str" cm="1">
-        <f t="array" ref="G364">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H364" cm="1">
-        <f t="array" ref="H364">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F364" s="1">
+        <v>45655</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I364" t="str" cm="1">
         <f t="array" ref="I364">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16543,17 +16391,14 @@
       <c r="E365" t="s">
         <v>9</v>
       </c>
-      <c r="F365" t="str" cm="1">
-        <f t="array" ref="F365">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-30 00:00:00</v>
-      </c>
-      <c r="G365" t="str" cm="1">
-        <f t="array" ref="G365">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H365" cm="1">
-        <f t="array" ref="H365">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F365" s="1">
+        <v>45656</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>1471</v>
       </c>
       <c r="I365" t="str" cm="1">
         <f t="array" ref="I365">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16576,17 +16421,14 @@
       <c r="E366" t="s">
         <v>12</v>
       </c>
-      <c r="F366" t="str" cm="1">
-        <f t="array" ref="F366">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-31 00:00:00</v>
-      </c>
-      <c r="G366" t="str" cm="1">
-        <f t="array" ref="G366">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H366" cm="1">
-        <f t="array" ref="H366">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F366" s="1">
+        <v>45657</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>1472</v>
       </c>
       <c r="I366" t="str" cm="1">
         <f t="array" ref="I366">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16609,17 +16451,14 @@
       <c r="E367" t="s">
         <v>15</v>
       </c>
-      <c r="F367" t="str" cm="1">
-        <f t="array" ref="F367">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2025-01-01 00:00:00</v>
-      </c>
-      <c r="G367" t="str" cm="1">
-        <f t="array" ref="G367">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0.000000000</v>
-      </c>
-      <c r="H367" cm="1">
-        <f t="array" ref="H367">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
-        <v>0</v>
+      <c r="F367" s="1">
+        <v>45658</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I367" t="str" cm="1">
         <f t="array" ref="I367">INDEX(D:D, (ROW()-ROW(D$2))*3 + 4)</f>
@@ -16642,8 +16481,9 @@
       <c r="E368" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F368" s="1"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>10</v>
       </c>
@@ -16659,8 +16499,9 @@
       <c r="E369" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F369" s="1"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -16676,8 +16517,9 @@
       <c r="E370" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F370" s="1"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -16693,8 +16535,9 @@
       <c r="E371" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F371" s="1"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>10</v>
       </c>
@@ -16710,8 +16553,9 @@
       <c r="E372" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F372" s="1"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>13</v>
       </c>
@@ -16728,7 +16572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -16745,7 +16589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>10</v>
       </c>
@@ -16762,7 +16606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>13</v>
       </c>
@@ -16779,7 +16623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -16796,7 +16640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>10</v>
       </c>
@@ -16813,7 +16657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>13</v>
       </c>
@@ -16830,7 +16674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -16847,7 +16691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>10</v>
       </c>
@@ -16864,7 +16708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -16881,7 +16725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -16898,7 +16742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>10</v>
       </c>
